--- a/capiq_data/in_process_data/IQ598655.xlsx
+++ b/capiq_data/in_process_data/IQ598655.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AEADA1-5386-467F-8636-7BBF32FC1A7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795D45B0-F84D-4FCF-9115-BDBEDB230AA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"838ce4fd-d328-4ddf-a4b8-fff278a56614"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"ba7aeddf-eaf9-46bf-87dd-5664febe16b2"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>132.90700000000001</v>
+        <v>27.611000000000001</v>
       </c>
       <c r="D2">
-        <v>837.71500000000003</v>
+        <v>85.662000000000006</v>
       </c>
       <c r="E2">
-        <v>747.24900000000002</v>
+        <v>32.719000000000001</v>
       </c>
       <c r="F2">
-        <v>422.59300000000002</v>
+        <v>42.756999999999998</v>
       </c>
       <c r="G2">
-        <v>2498.7550000000001</v>
+        <v>388.02100000000002</v>
       </c>
       <c r="H2">
-        <v>3988.6880000000001</v>
+        <v>463.34699999999998</v>
       </c>
       <c r="I2">
-        <v>132.34800000000001</v>
+        <v>22.495999999999999</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>46.359000000000002</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>669.03700000000003</v>
+        <v>49.970999999999997</v>
       </c>
       <c r="O2">
-        <v>939.12599999999998</v>
+        <v>98.108000000000004</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>46.945999999999998</v>
       </c>
       <c r="Q2">
-        <v>24.971</v>
+        <v>115.76300000000001</v>
       </c>
       <c r="R2">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="S2">
-        <v>8897</v>
+        <v>1291</v>
       </c>
       <c r="T2">
-        <v>3049.5619999999999</v>
+        <v>365.23899999999998</v>
       </c>
       <c r="U2">
-        <v>1260.9359999999999</v>
+        <v>251.73099999999999</v>
       </c>
       <c r="V2">
-        <v>184.422</v>
+        <v>21.827999999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>2.9140000000000001</v>
+        <v>104.414</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-146.73099999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>132.90700000000001</v>
+        <v>27.611000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>95.481999999999999</v>
+        <v>23.798999999999999</v>
       </c>
       <c r="D3">
-        <v>507.834</v>
+        <v>85.534000000000006</v>
       </c>
       <c r="E3">
-        <v>434.935</v>
+        <v>48.575000000000003</v>
       </c>
       <c r="F3">
-        <v>238.374</v>
+        <v>45.917999999999999</v>
       </c>
       <c r="G3">
-        <v>2192.837</v>
+        <v>402.846</v>
       </c>
       <c r="H3">
-        <v>3937.509</v>
+        <v>478.88499999999999</v>
       </c>
       <c r="I3">
-        <v>118.845</v>
+        <v>15.209</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>43.982999999999997</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,81 +972,81 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-2.484</v>
       </c>
       <c r="N3">
-        <v>469.91300000000001</v>
+        <v>36.286999999999999</v>
       </c>
       <c r="O3">
-        <v>744.28</v>
+        <v>88.906999999999996</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>43.982999999999997</v>
       </c>
       <c r="Q3">
-        <v>-50.320999999999998</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="R3">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3193.2289999999998</v>
+        <v>389.97800000000001</v>
       </c>
       <c r="U3">
-        <v>1210.615</v>
+        <v>253.01900000000001</v>
       </c>
       <c r="V3">
-        <v>207.59899999999999</v>
+        <v>7.4450000000000003</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3.8279999999999998</v>
+        <v>-2.484</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-264.649</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>95.481999999999999</v>
+        <v>23.798999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>109.477</v>
+        <v>36.603000000000002</v>
       </c>
       <c r="D4">
-        <v>674.09900000000005</v>
+        <v>103.634</v>
       </c>
       <c r="E4">
-        <v>493.05700000000002</v>
+        <v>54.444000000000003</v>
       </c>
       <c r="F4">
-        <v>322.10000000000002</v>
+        <v>55.05</v>
       </c>
       <c r="G4">
-        <v>2462.527</v>
+        <v>423.34899999999999</v>
       </c>
       <c r="H4">
-        <v>4198.4549999999999</v>
+        <v>498.50400000000002</v>
       </c>
       <c r="I4">
-        <v>125.68</v>
+        <v>13.465999999999999</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>37.866999999999997</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>916.08699999999999</v>
+        <v>37.841999999999999</v>
       </c>
       <c r="O4">
-        <v>1235.761</v>
+        <v>84.504999999999995</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>37.866999999999997</v>
       </c>
       <c r="Q4">
-        <v>208.256</v>
+        <v>25.759</v>
       </c>
       <c r="R4">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2962.694</v>
+        <v>413.99900000000002</v>
       </c>
       <c r="U4">
-        <v>1418.8710000000001</v>
+        <v>278.77699999999999</v>
       </c>
       <c r="V4">
-        <v>203.35400000000001</v>
+        <v>40.61</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>1.37</v>
+        <v>-6.133</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>7.3179999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>109.477</v>
+        <v>36.603000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>150.381</v>
+        <v>25.001000000000001</v>
       </c>
       <c r="D5">
-        <v>666.99300000000005</v>
+        <v>86.93</v>
       </c>
       <c r="E5">
-        <v>519.226</v>
+        <v>43.19</v>
       </c>
       <c r="F5">
-        <v>344.33100000000002</v>
+        <v>47.728999999999999</v>
       </c>
       <c r="G5">
-        <v>2553.9140000000002</v>
+        <v>439.46499999999997</v>
       </c>
       <c r="H5">
-        <v>4334.8850000000002</v>
+        <v>523.29899999999998</v>
       </c>
       <c r="I5">
-        <v>182.65100000000001</v>
+        <v>14.662000000000001</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>35.543999999999997</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>914.072</v>
+        <v>37.241</v>
       </c>
       <c r="O5">
-        <v>1266.693</v>
+        <v>82.022000000000006</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>35.543999999999997</v>
       </c>
       <c r="Q5">
-        <v>-29.465</v>
+        <v>34.491999999999997</v>
       </c>
       <c r="R5">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3068.192</v>
+        <v>441.27699999999999</v>
       </c>
       <c r="U5">
-        <v>1389.4059999999999</v>
+        <v>313.26900000000001</v>
       </c>
       <c r="V5">
-        <v>186.523</v>
+        <v>47.561999999999998</v>
       </c>
       <c r="W5">
-        <v>-154.83500000000001</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-153.24700000000001</v>
+        <v>-2.5390000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>21.106000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>150.381</v>
+        <v>25.001000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>165.55600000000001</v>
+        <v>28.045000000000002</v>
       </c>
       <c r="D6">
-        <v>909.64400000000001</v>
+        <v>93.021000000000001</v>
       </c>
       <c r="E6">
-        <v>607.45000000000005</v>
+        <v>47.997999999999998</v>
       </c>
       <c r="F6">
-        <v>433.78699999999998</v>
+        <v>49.462000000000003</v>
       </c>
       <c r="G6">
-        <v>2574.837</v>
+        <v>359.56400000000002</v>
       </c>
       <c r="H6">
-        <v>4471.3379999999997</v>
+        <v>538.98400000000004</v>
       </c>
       <c r="I6">
-        <v>164.01</v>
+        <v>18.837</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>28.010999999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>858.279</v>
+        <v>55.856999999999999</v>
       </c>
       <c r="O6">
-        <v>1214.7570000000001</v>
+        <v>85.015000000000001</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>33.667000000000002</v>
       </c>
       <c r="Q6">
-        <v>-102.246</v>
+        <v>-120.42700000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
-        <v>9229</v>
+        <v>1329</v>
       </c>
       <c r="T6">
-        <v>3256.5810000000001</v>
+        <v>453.96899999999999</v>
       </c>
       <c r="U6">
-        <v>1287.1600000000001</v>
+        <v>192.84200000000001</v>
       </c>
       <c r="V6">
-        <v>224.858</v>
+        <v>34.374000000000002</v>
       </c>
       <c r="W6">
-        <v>-155.928</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-159.364</v>
+        <v>-11.332000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-157.11699999999999</v>
+        <v>-131.584</v>
       </c>
       <c r="AA6">
-        <v>165.55600000000001</v>
+        <v>28.045000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>86.858000000000004</v>
+        <v>26.760999999999999</v>
       </c>
       <c r="D7">
-        <v>556.59699999999998</v>
+        <v>100.85599999999999</v>
       </c>
       <c r="E7">
-        <v>430.14499999999998</v>
+        <v>48.295999999999999</v>
       </c>
       <c r="F7">
-        <v>283.75900000000001</v>
+        <v>54.491999999999997</v>
       </c>
       <c r="G7">
-        <v>2349.2660000000001</v>
+        <v>367.065</v>
       </c>
       <c r="H7">
-        <v>4324.7929999999997</v>
+        <v>569.47900000000004</v>
       </c>
       <c r="I7">
-        <v>109.232</v>
+        <v>19.225000000000001</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>28.010999999999999</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-2.851</v>
       </c>
       <c r="N7">
-        <v>594.54200000000003</v>
+        <v>58.183</v>
       </c>
       <c r="O7">
-        <v>945.38800000000003</v>
+        <v>87.823999999999998</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>29.344999999999999</v>
       </c>
       <c r="Q7">
-        <v>-1.369</v>
+        <v>33.036999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3379.4050000000002</v>
+        <v>481.65499999999997</v>
       </c>
       <c r="U7">
-        <v>1285.7909999999999</v>
+        <v>225.87899999999999</v>
       </c>
       <c r="V7">
-        <v>122.22799999999999</v>
+        <v>48.326000000000001</v>
       </c>
       <c r="W7">
-        <v>-77.915000000000006</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-74.483000000000004</v>
+        <v>-2.851</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-43.287999999999997</v>
+        <v>-8.9489999999999998</v>
       </c>
       <c r="AA7">
-        <v>86.858000000000004</v>
+        <v>26.760999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>185.90299999999999</v>
+        <v>32.146000000000001</v>
       </c>
       <c r="D8">
-        <v>718.154</v>
+        <v>122.83799999999999</v>
       </c>
       <c r="E8">
-        <v>486.39499999999998</v>
+        <v>53.168999999999997</v>
       </c>
       <c r="F8">
-        <v>400.81299999999999</v>
+        <v>67.662000000000006</v>
       </c>
       <c r="G8">
-        <v>2381.2139999999999</v>
+        <v>416.14499999999998</v>
       </c>
       <c r="H8">
-        <v>4462.7619999999997</v>
+        <v>596.70799999999997</v>
       </c>
       <c r="I8">
-        <v>138.58199999999999</v>
+        <v>18</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>18.666</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>901.952</v>
+        <v>48.274000000000001</v>
       </c>
       <c r="O8">
-        <v>1252.075</v>
+        <v>68.64</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q8">
-        <v>-18.071999999999999</v>
+        <v>-79.304000000000002</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3210.6869999999999</v>
+        <v>528.06799999999998</v>
       </c>
       <c r="U8">
-        <v>1267.7190000000001</v>
+        <v>146.57499999999999</v>
       </c>
       <c r="V8">
-        <v>222.905</v>
+        <v>30.32</v>
       </c>
       <c r="W8">
-        <v>-87.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-86.177999999999997</v>
+        <v>-9.3800000000000008</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-131.995</v>
+        <v>-93.632000000000005</v>
       </c>
       <c r="AA8">
-        <v>185.904</v>
+        <v>32.146000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>140.34800000000001</v>
+        <v>38.427999999999997</v>
       </c>
       <c r="D9">
-        <v>672.37599999999998</v>
+        <v>107.756</v>
       </c>
       <c r="E9">
-        <v>508.72500000000002</v>
+        <v>44.915999999999997</v>
       </c>
       <c r="F9">
-        <v>359.05500000000001</v>
+        <v>59.051000000000002</v>
       </c>
       <c r="G9">
-        <v>2473.0479999999998</v>
+        <v>379.12200000000001</v>
       </c>
       <c r="H9">
-        <v>4630.7420000000002</v>
+        <v>628.83799999999997</v>
       </c>
       <c r="I9">
-        <v>147.86600000000001</v>
+        <v>22.068999999999999</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>18.666</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>883.55399999999997</v>
+        <v>48.097000000000001</v>
       </c>
       <c r="O9">
-        <v>1242.9949999999999</v>
+        <v>67.837999999999994</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9">
-        <v>-20.646000000000001</v>
+        <v>47.869</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3387.7469999999998</v>
+        <v>561</v>
       </c>
       <c r="U9">
-        <v>1247.0730000000001</v>
+        <v>194.44399999999999</v>
       </c>
       <c r="V9">
-        <v>164.90100000000001</v>
+        <v>51.235999999999997</v>
       </c>
       <c r="W9">
-        <v>-87.748000000000005</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-86.486000000000004</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-93.216999999999999</v>
+        <v>5.59</v>
       </c>
       <c r="AA9">
-        <v>140.34800000000001</v>
+        <v>38.427999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>129.29400000000001</v>
+        <v>45.462000000000003</v>
       </c>
       <c r="D10">
-        <v>768.548</v>
+        <v>133.69399999999999</v>
       </c>
       <c r="E10">
-        <v>603.673</v>
+        <v>58.277999999999999</v>
       </c>
       <c r="F10">
-        <v>394.85399999999998</v>
+        <v>73.850999999999999</v>
       </c>
       <c r="G10">
-        <v>2536.12</v>
+        <v>472.99900000000002</v>
       </c>
       <c r="H10">
-        <v>4819.1239999999998</v>
+        <v>705.88800000000003</v>
       </c>
       <c r="I10">
-        <v>131.26300000000001</v>
+        <v>32.445999999999998</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>909.02599999999995</v>
+        <v>81.177999999999997</v>
       </c>
       <c r="O10">
-        <v>1287.328</v>
+        <v>103.389</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q10">
-        <v>-15.893000000000001</v>
+        <v>22.324000000000002</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
-        <v>9777</v>
+        <v>1575</v>
       </c>
       <c r="T10">
-        <v>3531.7959999999998</v>
+        <v>602.49900000000002</v>
       </c>
       <c r="U10">
-        <v>1231.18</v>
+        <v>216.768</v>
       </c>
       <c r="V10">
-        <v>174.71100000000001</v>
+        <v>45.526000000000003</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.702</v>
+        <v>1.639</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-175.495</v>
+        <v>-18.123000000000001</v>
       </c>
       <c r="AA10">
-        <v>129.29400000000001</v>
+        <v>45.462000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>88.665999999999997</v>
+        <v>41.494</v>
       </c>
       <c r="D11">
-        <v>531.95699999999999</v>
+        <v>123.788</v>
       </c>
       <c r="E11">
-        <v>450.59399999999999</v>
+        <v>52.107999999999997</v>
       </c>
       <c r="F11">
-        <v>276.13299999999998</v>
+        <v>74.655000000000001</v>
       </c>
       <c r="G11">
-        <v>2313.9549999999999</v>
+        <v>465.90899999999999</v>
       </c>
       <c r="H11">
-        <v>4570.42</v>
+        <v>738.899</v>
       </c>
       <c r="I11">
-        <v>112.17</v>
+        <v>24.67</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,75 +1639,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>605.101</v>
+        <v>70.828000000000003</v>
       </c>
       <c r="O11">
-        <v>952.09500000000003</v>
+        <v>93.105999999999995</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q11">
-        <v>-137.74</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3618.3249999999998</v>
+        <v>645.79300000000001</v>
       </c>
       <c r="U11">
-        <v>1093.44</v>
+        <v>251.148</v>
       </c>
       <c r="V11">
-        <v>59.363</v>
+        <v>42.363999999999997</v>
       </c>
       <c r="W11">
-        <v>-175.95599999999999</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-174.286</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>12.321</v>
+        <v>-4.258</v>
       </c>
       <c r="AA11">
-        <v>88.665999999999997</v>
+        <v>41.494</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>172.49100000000001</v>
+        <v>47.247</v>
       </c>
       <c r="D12">
-        <v>696.56299999999999</v>
+        <v>143.495</v>
       </c>
       <c r="E12">
-        <v>484.24599999999998</v>
+        <v>60.72</v>
       </c>
       <c r="F12">
-        <v>383.64</v>
+        <v>83.656999999999996</v>
       </c>
       <c r="G12">
-        <v>2346.259</v>
+        <v>488.976</v>
       </c>
       <c r="H12">
-        <v>4599.1809999999996</v>
+        <v>773.60199999999998</v>
       </c>
       <c r="I12">
-        <v>128.078</v>
+        <v>27.873000000000001</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1722,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>889.73500000000001</v>
+        <v>74.662000000000006</v>
       </c>
       <c r="O12">
-        <v>1232.8240000000001</v>
+        <v>76.600999999999999</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>-9.9499999999999993</v>
+        <v>15.331</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3366.357</v>
+        <v>697.00099999999998</v>
       </c>
       <c r="U12">
-        <v>1083.49</v>
+        <v>266.47899999999998</v>
       </c>
       <c r="V12">
-        <v>204.298</v>
+        <v>46.103000000000002</v>
       </c>
       <c r="W12">
-        <v>-87.900999999999996</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-101.806</v>
+        <v>-18.981999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-30.75</v>
+        <v>-8.8569999999999993</v>
       </c>
       <c r="AA12">
-        <v>172.49100000000001</v>
+        <v>47.246000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>187.67</v>
+        <v>35.308</v>
       </c>
       <c r="D13">
-        <v>643.63699999999994</v>
+        <v>135.56200000000001</v>
       </c>
       <c r="E13">
-        <v>475.70699999999999</v>
+        <v>64.119</v>
       </c>
       <c r="F13">
-        <v>352.88900000000001</v>
+        <v>76.709000000000003</v>
       </c>
       <c r="G13">
-        <v>2444.6379999999999</v>
+        <v>503.541</v>
       </c>
       <c r="H13">
-        <v>4823.2259999999997</v>
+        <v>824.98699999999997</v>
       </c>
       <c r="I13">
-        <v>151.798</v>
+        <v>30.88</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1805,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>974.03300000000002</v>
+        <v>132.83600000000001</v>
       </c>
       <c r="O13">
-        <v>1265.722</v>
+        <v>135.59899999999999</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>-14.79</v>
+        <v>-21.806000000000001</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3557.5039999999999</v>
+        <v>689.38800000000003</v>
       </c>
       <c r="U13">
-        <v>1068.7</v>
+        <v>244.673</v>
       </c>
       <c r="V13">
-        <v>216.61</v>
+        <v>37.567</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-8.09</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-119.333</v>
+        <v>-11.861000000000001</v>
       </c>
       <c r="AA13">
-        <v>187.66900000000001</v>
+        <v>35.308</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>163.58500000000001</v>
+        <v>54.585000000000001</v>
       </c>
       <c r="D14">
-        <v>759.69500000000005</v>
+        <v>170.14400000000001</v>
       </c>
       <c r="E14">
-        <v>564.58600000000001</v>
+        <v>82.718000000000004</v>
       </c>
       <c r="F14">
-        <v>394.63799999999998</v>
+        <v>95.519000000000005</v>
       </c>
       <c r="G14">
-        <v>2595.636</v>
+        <v>539.928</v>
       </c>
       <c r="H14">
-        <v>4879.6030000000001</v>
+        <v>856.94500000000005</v>
       </c>
       <c r="I14">
-        <v>146.58199999999999</v>
+        <v>40.670999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1888,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>905.30399999999997</v>
+        <v>104.434</v>
       </c>
       <c r="O14">
-        <v>1219.8969999999999</v>
+        <v>107.255</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>110.449</v>
+        <v>29.655999999999999</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="S14">
-        <v>10086</v>
+        <v>2021</v>
       </c>
       <c r="T14">
-        <v>3659.7060000000001</v>
+        <v>749.69</v>
       </c>
       <c r="U14">
-        <v>1179.1489999999999</v>
+        <v>274.32900000000001</v>
       </c>
       <c r="V14">
-        <v>149.81299999999999</v>
+        <v>47.421999999999997</v>
       </c>
       <c r="W14">
-        <v>-87.85</v>
+        <v>-54.04</v>
       </c>
       <c r="X14">
-        <v>-122.65600000000001</v>
+        <v>-51.578000000000003</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>62.101999999999997</v>
+        <v>47.845999999999997</v>
       </c>
       <c r="AA14">
-        <v>163.58500000000001</v>
+        <v>54.585000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>118.818</v>
+        <v>34.655999999999999</v>
       </c>
       <c r="D15">
-        <v>583.221</v>
+        <v>158.32900000000001</v>
       </c>
       <c r="E15">
-        <v>427.45699999999999</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="F15">
-        <v>330.834</v>
+        <v>80.450999999999993</v>
       </c>
       <c r="G15">
-        <v>2387.4949999999999</v>
+        <v>545.41300000000001</v>
       </c>
       <c r="H15">
-        <v>4738.9139999999998</v>
+        <v>898.9</v>
       </c>
       <c r="I15">
-        <v>124.241</v>
+        <v>28.654</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1971,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>697.10799999999995</v>
+        <v>99.323999999999998</v>
       </c>
       <c r="O15">
-        <v>986.54399999999998</v>
+        <v>102.291</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>-42.457999999999998</v>
+        <v>8.0370000000000008</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3752.37</v>
+        <v>796.60900000000004</v>
       </c>
       <c r="U15">
-        <v>1136.691</v>
+        <v>282.36599999999999</v>
       </c>
       <c r="V15">
-        <v>71.173000000000002</v>
+        <v>52.274999999999999</v>
       </c>
       <c r="W15">
-        <v>-87.852999999999994</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-117.59099999999999</v>
+        <v>0.68</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-74.909000000000006</v>
+        <v>-27.015000000000001</v>
       </c>
       <c r="AA15">
-        <v>118.818</v>
+        <v>34.655999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>181.982</v>
+        <v>56.314</v>
       </c>
       <c r="D16">
-        <v>777.84799999999996</v>
+        <v>189.655</v>
       </c>
       <c r="E16">
-        <v>496.97899999999998</v>
+        <v>98.638000000000005</v>
       </c>
       <c r="F16">
-        <v>444.48500000000001</v>
+        <v>98.319000000000003</v>
       </c>
       <c r="G16">
-        <v>2496.569</v>
+        <v>542.697</v>
       </c>
       <c r="H16">
-        <v>4741.8019999999997</v>
+        <v>968.96600000000001</v>
       </c>
       <c r="I16">
-        <v>132.58099999999999</v>
+        <v>40.587000000000003</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +2054,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>969.25</v>
+        <v>124.486</v>
       </c>
       <c r="O16">
-        <v>1261.1859999999999</v>
+        <v>125.101</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>98.194999999999993</v>
+        <v>-39.65</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3480.616</v>
+        <v>843.86500000000001</v>
       </c>
       <c r="U16">
-        <v>1234.886</v>
+        <v>242.71600000000001</v>
       </c>
       <c r="V16">
-        <v>164.179</v>
+        <v>48.078000000000003</v>
       </c>
       <c r="W16">
-        <v>-87.721000000000004</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-216.75899999999999</v>
+        <v>-3.1360000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>130.84399999999999</v>
+        <v>-38.198</v>
       </c>
       <c r="AA16">
-        <v>181.983</v>
+        <v>56.314999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-146.834</v>
+        <v>67.129000000000005</v>
       </c>
       <c r="D17">
-        <v>706.28300000000002</v>
+        <v>193.61600000000001</v>
       </c>
       <c r="E17">
-        <v>478.72199999999998</v>
+        <v>85.867999999999995</v>
       </c>
       <c r="F17">
-        <v>398.24599999999998</v>
+        <v>111.67100000000001</v>
       </c>
       <c r="G17">
-        <v>2421.4850000000001</v>
+        <v>621.62199999999996</v>
       </c>
       <c r="H17">
-        <v>4669.3639999999996</v>
+        <v>1058.0509999999999</v>
       </c>
       <c r="I17">
-        <v>144.88200000000001</v>
+        <v>47.287999999999997</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2137,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1123.4829999999999</v>
+        <v>195.947</v>
       </c>
       <c r="O17">
-        <v>1432.951</v>
+        <v>202.45</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>-80.328000000000003</v>
+        <v>54.787999999999997</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3236.413</v>
+        <v>855.601</v>
       </c>
       <c r="U17">
-        <v>1154.558</v>
+        <v>297.50400000000002</v>
       </c>
       <c r="V17">
-        <v>142.34200000000001</v>
+        <v>79.046999999999997</v>
       </c>
       <c r="W17">
-        <v>-92.448999999999998</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-169.22399999999999</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>5.5380000000000003</v>
+        <v>-17.212</v>
       </c>
       <c r="AA17">
-        <v>-146.834</v>
+        <v>67.128</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>210.245</v>
+        <v>47.600999999999999</v>
       </c>
       <c r="D18">
-        <v>803.30600000000004</v>
+        <v>220.94800000000001</v>
       </c>
       <c r="E18">
-        <v>570.19100000000003</v>
+        <v>110.119</v>
       </c>
       <c r="F18">
-        <v>430.84800000000001</v>
+        <v>120.798</v>
       </c>
       <c r="G18">
-        <v>2510.9760000000001</v>
+        <v>636.971</v>
       </c>
       <c r="H18">
-        <v>4693.3029999999999</v>
+        <v>1117.3910000000001</v>
       </c>
       <c r="I18">
-        <v>149.09399999999999</v>
+        <v>53.673000000000002</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2220,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1033.261</v>
+        <v>176.267</v>
       </c>
       <c r="O18">
-        <v>1289.9359999999999</v>
+        <v>181.53399999999999</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>41.71</v>
+        <v>-47.594999999999999</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="S18">
-        <v>11185</v>
+        <v>2484</v>
       </c>
       <c r="T18">
-        <v>3403.3670000000002</v>
+        <v>935.85699999999997</v>
       </c>
       <c r="U18">
-        <v>1196.268</v>
+        <v>249.90899999999999</v>
       </c>
       <c r="V18">
-        <v>145.017</v>
+        <v>29.536000000000001</v>
       </c>
       <c r="W18">
-        <v>-92.052000000000007</v>
+        <v>-54.094999999999999</v>
       </c>
       <c r="X18">
-        <v>-96.048000000000002</v>
+        <v>-48.951999999999998</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>28.721</v>
+        <v>-22.134</v>
       </c>
       <c r="AA18">
-        <v>210.245</v>
+        <v>47.600999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>66.793000000000006</v>
+        <v>47.401000000000003</v>
       </c>
       <c r="D19">
-        <v>585.39400000000001</v>
+        <v>192.65100000000001</v>
       </c>
       <c r="E19">
-        <v>425.65</v>
+        <v>101.72</v>
       </c>
       <c r="F19">
-        <v>344.12200000000001</v>
+        <v>103.19799999999999</v>
       </c>
       <c r="G19">
-        <v>2500.3069999999998</v>
+        <v>623.56500000000005</v>
       </c>
       <c r="H19">
-        <v>4543.2790000000005</v>
+        <v>1153.231</v>
       </c>
       <c r="I19">
-        <v>125.745</v>
+        <v>40.320999999999998</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2303,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>824.26099999999997</v>
+        <v>147.55000000000001</v>
       </c>
       <c r="O19">
-        <v>1065.6489999999999</v>
+        <v>152.88399999999999</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>-24.88</v>
+        <v>-0.71599999999999997</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3477.63</v>
+        <v>1000.347</v>
       </c>
       <c r="U19">
-        <v>1171.3879999999999</v>
+        <v>249.19300000000001</v>
       </c>
       <c r="V19">
-        <v>81.655000000000001</v>
+        <v>42.847000000000001</v>
       </c>
       <c r="W19">
-        <v>-91.963999999999999</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-107.66800000000001</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>54.01</v>
+        <v>-33.161999999999999</v>
       </c>
       <c r="AA19">
-        <v>66.793000000000006</v>
+        <v>47.401000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>137.75200000000001</v>
+        <v>74.194000000000003</v>
       </c>
       <c r="D20">
-        <v>773.83</v>
+        <v>264.49700000000001</v>
       </c>
       <c r="E20">
-        <v>502.03399999999999</v>
+        <v>154.697</v>
       </c>
       <c r="F20">
-        <v>419.25</v>
+        <v>139.98099999999999</v>
       </c>
       <c r="G20">
-        <v>2283.2959999999998</v>
+        <v>719.31</v>
       </c>
       <c r="H20">
-        <v>4423.4089999999997</v>
+        <v>1229.223</v>
       </c>
       <c r="I20">
-        <v>146.08799999999999</v>
+        <v>51.119</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2386,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>961.68100000000004</v>
+        <v>154.29</v>
       </c>
       <c r="O20">
-        <v>1214.904</v>
+        <v>159.39099999999999</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>-233.20500000000001</v>
+        <v>51.04</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3208.5050000000001</v>
+        <v>1069.8320000000001</v>
       </c>
       <c r="U20">
-        <v>938.18299999999999</v>
+        <v>300.233</v>
       </c>
       <c r="V20">
-        <v>-97.358999999999995</v>
+        <v>46.56</v>
       </c>
       <c r="W20">
-        <v>-91.960999999999999</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-123.99299999999999</v>
+        <v>-10.606999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>6.6849999999999996</v>
+        <v>19.076000000000001</v>
       </c>
       <c r="AA20">
-        <v>137.75299999999999</v>
+        <v>74.194000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>119.29900000000001</v>
+        <v>102.49</v>
       </c>
       <c r="D21">
-        <v>679.69</v>
+        <v>251.32900000000001</v>
       </c>
       <c r="E21">
-        <v>431.94200000000001</v>
+        <v>151.77699999999999</v>
       </c>
       <c r="F21">
-        <v>362.19</v>
+        <v>129.452</v>
       </c>
       <c r="G21">
-        <v>2231.953</v>
+        <v>757.72299999999996</v>
       </c>
       <c r="H21">
-        <v>4388.4719999999998</v>
+        <v>1304.7260000000001</v>
       </c>
       <c r="I21">
-        <v>158.66300000000001</v>
+        <v>50.21</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2469,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>894.65599999999995</v>
+        <v>222.191</v>
       </c>
       <c r="O21">
-        <v>1153.787</v>
+        <v>236.29400000000001</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>-23.276</v>
+        <v>31.012</v>
       </c>
       <c r="R21">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3234.6849999999999</v>
+        <v>1068.432</v>
       </c>
       <c r="U21">
-        <v>914.90700000000004</v>
+        <v>331.245</v>
       </c>
       <c r="V21">
-        <v>137.83500000000001</v>
+        <v>85.935000000000002</v>
       </c>
       <c r="W21">
-        <v>-97.322000000000003</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-148.07300000000001</v>
+        <v>-12.913</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>10.141</v>
+        <v>-36</v>
       </c>
       <c r="AA21">
-        <v>119.29900000000001</v>
+        <v>102.49</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42364</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>132.38300000000001</v>
+        <v>87.134</v>
       </c>
       <c r="D22">
-        <v>781.35699999999997</v>
+        <v>319.29599999999999</v>
       </c>
       <c r="E22">
-        <v>531.48099999999999</v>
+        <v>170.99700000000001</v>
       </c>
       <c r="F22">
-        <v>413.14299999999997</v>
+        <v>162.43899999999999</v>
       </c>
       <c r="G22">
-        <v>2211.087</v>
+        <v>801.16700000000003</v>
       </c>
       <c r="H22">
-        <v>4499.3909999999996</v>
+        <v>1362.2349999999999</v>
       </c>
       <c r="I22">
-        <v>178.905</v>
+        <v>76.516000000000005</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2552,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>865.99800000000005</v>
+        <v>195.48500000000001</v>
       </c>
       <c r="O22">
-        <v>1154.2650000000001</v>
+        <v>204.971</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>-81.837000000000003</v>
+        <v>3.1070000000000002</v>
       </c>
       <c r="R22">
-        <v>42364</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>11651</v>
+        <v>3034</v>
       </c>
       <c r="T22">
-        <v>3345.1260000000002</v>
+        <v>1157.2639999999999</v>
       </c>
       <c r="U22">
-        <v>833.07</v>
+        <v>334.35199999999998</v>
       </c>
       <c r="V22">
-        <v>158.33600000000001</v>
+        <v>71.662999999999997</v>
       </c>
       <c r="W22">
-        <v>-96.87</v>
+        <v>-53.973999999999997</v>
       </c>
       <c r="X22">
-        <v>-120.358</v>
+        <v>-48.521000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-67.616</v>
+        <v>-9.02</v>
       </c>
       <c r="AA22">
-        <v>132.38300000000001</v>
+        <v>87.134</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42455</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>88.091999999999999</v>
+        <v>87.516000000000005</v>
       </c>
       <c r="D23">
-        <v>624.04</v>
+        <v>322.31099999999998</v>
       </c>
       <c r="E23">
-        <v>408.28300000000002</v>
+        <v>200.251</v>
       </c>
       <c r="F23">
-        <v>339.85</v>
+        <v>162.79</v>
       </c>
       <c r="G23">
-        <v>2129.1329999999998</v>
+        <v>844.46</v>
       </c>
       <c r="H23">
-        <v>4410.3239999999996</v>
+        <v>1471.499</v>
       </c>
       <c r="I23">
-        <v>137.16200000000001</v>
+        <v>68.808999999999997</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2635,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>680.72</v>
+        <v>197.083</v>
       </c>
       <c r="O23">
-        <v>973.077</v>
+        <v>206.81299999999999</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24.609000000000002</v>
+        <v>-19.728999999999999</v>
       </c>
       <c r="R23">
-        <v>42455</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3437.2469999999998</v>
+        <v>1264.6859999999999</v>
       </c>
       <c r="U23">
-        <v>857.67899999999997</v>
+        <v>314.62299999999999</v>
       </c>
       <c r="V23">
-        <v>129.387</v>
+        <v>56.216000000000001</v>
       </c>
       <c r="W23">
-        <v>-96.566000000000003</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-116.273</v>
+        <v>11.042</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>86.394000000000005</v>
+        <v>-71.606999999999999</v>
       </c>
       <c r="AA23">
-        <v>88.091999999999999</v>
+        <v>87.516000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42546</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>161.06299999999999</v>
+        <v>123.28400000000001</v>
       </c>
       <c r="D24">
-        <v>811.60900000000004</v>
+        <v>432.46800000000002</v>
       </c>
       <c r="E24">
-        <v>510.30900000000003</v>
+        <v>295.79500000000002</v>
       </c>
       <c r="F24">
-        <v>462.95800000000003</v>
+        <v>216.28399999999999</v>
       </c>
       <c r="G24">
-        <v>2212.587</v>
+        <v>1023.8630000000001</v>
       </c>
       <c r="H24">
-        <v>4527.5829999999996</v>
+        <v>1661.857</v>
       </c>
       <c r="I24">
-        <v>151.904</v>
+        <v>89.635000000000005</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2718,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1010.429</v>
+        <v>373.64</v>
       </c>
       <c r="O24">
-        <v>1308.748</v>
+        <v>384.99</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>-56.215000000000003</v>
+        <v>59.320999999999998</v>
       </c>
       <c r="R24">
-        <v>42546</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3218.835</v>
+        <v>1276.867</v>
       </c>
       <c r="U24">
-        <v>801.46400000000006</v>
+        <v>373.94400000000002</v>
       </c>
       <c r="V24">
-        <v>149.98500000000001</v>
+        <v>76.16</v>
       </c>
       <c r="W24">
-        <v>-96.545000000000002</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-113.136</v>
+        <v>5.4249999999999998</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-77.301000000000002</v>
+        <v>-10.041</v>
       </c>
       <c r="AA24">
-        <v>161.06399999999999</v>
+        <v>123.286</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42637</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>125.054</v>
+        <v>122.97799999999999</v>
       </c>
       <c r="D25">
-        <v>722.25</v>
+        <v>407.99700000000001</v>
       </c>
       <c r="E25">
-        <v>461.35500000000002</v>
+        <v>249.84899999999999</v>
       </c>
       <c r="F25">
-        <v>405.98</v>
+        <v>198.86</v>
       </c>
       <c r="G25">
-        <v>2247.4589999999998</v>
+        <v>1132.345</v>
       </c>
       <c r="H25">
-        <v>4591.9059999999999</v>
+        <v>1799.537</v>
       </c>
       <c r="I25">
-        <v>148.03</v>
+        <v>125.236</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>919.995</v>
+        <v>445.16500000000002</v>
       </c>
       <c r="O25">
-        <v>1229.6769999999999</v>
+        <v>458.16500000000002</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>111.095</v>
+        <v>-22.221</v>
       </c>
       <c r="R25">
-        <v>42637</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3362.2289999999998</v>
+        <v>1341.3720000000001</v>
       </c>
       <c r="U25">
-        <v>912.55899999999997</v>
+        <v>351.72300000000001</v>
       </c>
       <c r="V25">
-        <v>212.994</v>
+        <v>116.749</v>
       </c>
       <c r="W25">
-        <v>-96.22</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-114.752</v>
+        <v>-49.423000000000002</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>23.963999999999999</v>
+        <v>-69.965000000000003</v>
       </c>
       <c r="AA25">
-        <v>125.054</v>
+        <v>122.97799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>136.60499999999999</v>
+        <v>180.345</v>
       </c>
       <c r="D26">
-        <v>860.76700000000005</v>
+        <v>611.22400000000005</v>
       </c>
       <c r="E26">
-        <v>527.06200000000001</v>
+        <v>403.524</v>
       </c>
       <c r="F26">
-        <v>470.78199999999998</v>
+        <v>304.45299999999997</v>
       </c>
       <c r="G26">
-        <v>2263.0160000000001</v>
+        <v>1169.0840000000001</v>
       </c>
       <c r="H26">
-        <v>4525.1329999999998</v>
+        <v>1897.02</v>
       </c>
       <c r="I26">
-        <v>172.404</v>
+        <v>88.375</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>782.73500000000001</v>
+        <v>337.68200000000002</v>
       </c>
       <c r="O26">
-        <v>1107.1300000000001</v>
+        <v>339.12099999999998</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="Q26">
-        <v>-65.676000000000002</v>
+        <v>-14.401999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>11600</v>
+        <v>4751</v>
       </c>
       <c r="T26">
-        <v>3418.0030000000002</v>
+        <v>1557.8989999999999</v>
       </c>
       <c r="U26">
-        <v>846.88300000000004</v>
+        <v>337.32100000000003</v>
       </c>
       <c r="V26">
-        <v>213.316</v>
+        <v>112.73</v>
       </c>
       <c r="W26">
-        <v>-192.12100000000001</v>
+        <v>-107.923</v>
       </c>
       <c r="X26">
-        <v>-217.51499999999999</v>
+        <v>-99.694000000000003</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>19.204000000000001</v>
+        <v>57.841000000000001</v>
       </c>
       <c r="AA26">
-        <v>136.60499999999999</v>
+        <v>180.345</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>238.404</v>
+        <v>139.86000000000001</v>
       </c>
       <c r="D27">
-        <v>641.51</v>
+        <v>492.15899999999999</v>
       </c>
       <c r="E27">
-        <v>391.34500000000003</v>
+        <v>334.01</v>
       </c>
       <c r="F27">
-        <v>372.80599999999998</v>
+        <v>237.75200000000001</v>
       </c>
       <c r="G27">
-        <v>2156.91</v>
+        <v>1270.538</v>
       </c>
       <c r="H27">
-        <v>4600.6809999999996</v>
+        <v>2017.1679999999999</v>
       </c>
       <c r="I27">
-        <v>136.90100000000001</v>
+        <v>110.119</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,78 +2964,78 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="N27">
-        <v>571.45899999999995</v>
+        <v>243.42</v>
       </c>
       <c r="O27">
-        <v>898.61900000000003</v>
+        <v>321.48599999999999</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="Q27">
-        <v>-13.302</v>
+        <v>142.059</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3702.0619999999999</v>
+        <v>1695.682</v>
       </c>
       <c r="U27">
-        <v>833.577</v>
+        <v>479.38</v>
       </c>
       <c r="V27">
-        <v>120.395</v>
+        <v>168.67</v>
       </c>
       <c r="W27">
-        <v>-96.028000000000006</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-127.35299999999999</v>
+        <v>5.0179999999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>13.477</v>
+        <v>51.726999999999997</v>
       </c>
       <c r="AA27">
-        <v>238.404</v>
+        <v>139.86000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>176.97800000000001</v>
+        <v>214.37700000000001</v>
       </c>
       <c r="D28">
-        <v>831.48599999999999</v>
+        <v>742.46600000000001</v>
       </c>
       <c r="E28">
-        <v>514.94200000000001</v>
+        <v>506.483</v>
       </c>
       <c r="F28">
-        <v>484.13</v>
+        <v>374.66699999999997</v>
       </c>
       <c r="G28">
-        <v>2304.9340000000002</v>
+        <v>1688.309</v>
       </c>
       <c r="H28">
-        <v>4748.7719999999999</v>
+        <v>2444.6010000000001</v>
       </c>
       <c r="I28">
-        <v>161.398</v>
+        <v>167.339</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>928.50900000000001</v>
+        <v>428.15199999999999</v>
       </c>
       <c r="O28">
-        <v>1264.325</v>
+        <v>519.63199999999995</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25.983000000000001</v>
+        <v>188.291</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3484.4470000000001</v>
+        <v>1924.9690000000001</v>
       </c>
       <c r="U28">
-        <v>859.56</v>
+        <v>667.67100000000005</v>
       </c>
       <c r="V28">
-        <v>143.43199999999999</v>
+        <v>253.46899999999999</v>
       </c>
       <c r="W28">
-        <v>-95.662999999999997</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-121.56100000000001</v>
+        <v>9.6280000000000001</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>21.361999999999998</v>
+        <v>24.962</v>
       </c>
       <c r="AA28">
-        <v>176.97900000000001</v>
+        <v>214.37700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>151.07400000000001</v>
+        <v>193.50700000000001</v>
       </c>
       <c r="D29">
-        <v>751.24400000000003</v>
+        <v>728.673</v>
       </c>
       <c r="E29">
-        <v>457.39100000000002</v>
+        <v>520.53800000000001</v>
       </c>
       <c r="F29">
-        <v>437.52300000000002</v>
+        <v>341.851</v>
       </c>
       <c r="G29">
-        <v>2332.4740000000002</v>
+        <v>1857.932</v>
       </c>
       <c r="H29">
-        <v>4835.3909999999996</v>
+        <v>2645.5</v>
       </c>
       <c r="I29">
-        <v>158.59100000000001</v>
+        <v>236.04400000000001</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,75 +3133,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>846.04499999999996</v>
+        <v>567.96199999999999</v>
       </c>
       <c r="O29">
-        <v>1195.7059999999999</v>
+        <v>660.28899999999999</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="Q29">
-        <v>31.719000000000001</v>
+        <v>36.078000000000003</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3639.6849999999999</v>
+        <v>1985.211</v>
       </c>
       <c r="U29">
-        <v>891.279</v>
+        <v>703.74900000000002</v>
       </c>
       <c r="V29">
-        <v>198.75</v>
+        <v>133.76599999999999</v>
       </c>
       <c r="W29">
-        <v>-95.626999999999995</v>
+        <v>-162.53100000000001</v>
       </c>
       <c r="X29">
-        <v>-106.19799999999999</v>
+        <v>-146.261</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-17.509</v>
+        <v>81.025999999999996</v>
       </c>
       <c r="AA29">
-        <v>151.07400000000001</v>
+        <v>193.50700000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>142.55099999999999</v>
+        <v>307.267</v>
       </c>
       <c r="D30">
-        <v>897.31899999999996</v>
+        <v>1217.021</v>
       </c>
       <c r="E30">
-        <v>590.88199999999995</v>
+        <v>952.51300000000003</v>
       </c>
       <c r="F30">
-        <v>503.48200000000003</v>
+        <v>508.98500000000001</v>
       </c>
       <c r="G30">
-        <v>2346.1379999999999</v>
+        <v>2332.7750000000001</v>
       </c>
       <c r="H30">
-        <v>4948.2889999999998</v>
+        <v>3291.46</v>
       </c>
       <c r="I30">
-        <v>169.64</v>
+        <v>341.053</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3216,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>792.11500000000001</v>
+        <v>801.88300000000004</v>
       </c>
       <c r="O30">
-        <v>1095.8699999999999</v>
+        <v>940.846</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.36299999999999999</v>
+        <v>3.94</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>12300</v>
+        <v>8434</v>
       </c>
       <c r="T30">
-        <v>3852.4189999999999</v>
+        <v>2350.614</v>
       </c>
       <c r="U30">
-        <v>891.48800000000006</v>
+        <v>707.68899999999996</v>
       </c>
       <c r="V30">
-        <v>198.26499999999999</v>
+        <v>126.18300000000001</v>
       </c>
       <c r="W30">
-        <v>-95.658000000000001</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-93.3</v>
+        <v>-4.5019999999999998</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>30.324999999999999</v>
+        <v>-44.94</v>
       </c>
       <c r="AA30">
-        <v>142.55099999999999</v>
+        <v>307.267</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>129.374</v>
+        <v>147.779</v>
       </c>
       <c r="D31">
-        <v>710.87199999999996</v>
+        <v>663.80499999999995</v>
       </c>
       <c r="E31">
-        <v>409.70400000000001</v>
+        <v>515.64800000000002</v>
       </c>
       <c r="F31">
-        <v>426.53500000000003</v>
+        <v>320.11500000000001</v>
       </c>
       <c r="G31">
-        <v>2191.2829999999999</v>
+        <v>1931.125</v>
       </c>
       <c r="H31">
-        <v>4855.2219999999998</v>
+        <v>3083.3980000000001</v>
       </c>
       <c r="I31">
-        <v>136.13200000000001</v>
+        <v>213.76599999999999</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3299,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>557.84299999999996</v>
+        <v>466.71300000000002</v>
       </c>
       <c r="O31">
-        <v>858.029</v>
+        <v>615.95299999999997</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7.5010000000000003</v>
+        <v>-108.874</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3997.1930000000002</v>
+        <v>2467.4450000000002</v>
       </c>
       <c r="U31">
-        <v>898.98099999999999</v>
+        <v>598.81500000000005</v>
       </c>
       <c r="V31">
-        <v>214.19</v>
+        <v>192.465</v>
       </c>
       <c r="W31">
-        <v>-96.146000000000001</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-100.782</v>
+        <v>-86.893000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-75.37</v>
+        <v>-163.38399999999999</v>
       </c>
       <c r="AA31">
-        <v>129.374</v>
+        <v>147.779</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>190.34100000000001</v>
+        <v>256.09199999999998</v>
       </c>
       <c r="D32">
-        <v>894.452</v>
+        <v>911.67100000000005</v>
       </c>
       <c r="E32">
-        <v>533.07600000000002</v>
+        <v>679.78899999999999</v>
       </c>
       <c r="F32">
-        <v>523.27</v>
+        <v>417.12799999999999</v>
       </c>
       <c r="G32">
-        <v>2323.5819999999999</v>
+        <v>2117.5709999999999</v>
       </c>
       <c r="H32">
-        <v>4988.72</v>
+        <v>3132.0309999999999</v>
       </c>
       <c r="I32">
-        <v>166.499</v>
+        <v>179.21199999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3382,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>929.14700000000005</v>
+        <v>673.46799999999996</v>
       </c>
       <c r="O32">
-        <v>1229.8389999999999</v>
+        <v>822.37800000000004</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47.606999999999999</v>
+        <v>25.667000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3758.8809999999999</v>
+        <v>2309.6529999999998</v>
       </c>
       <c r="U32">
-        <v>946.65599999999995</v>
+        <v>624.48199999999997</v>
       </c>
       <c r="V32">
-        <v>223.87299999999999</v>
+        <v>87.715999999999994</v>
       </c>
       <c r="W32">
-        <v>-99.94</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-88.061999999999998</v>
+        <v>-222.41900000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-6.8650000000000002</v>
+        <v>209.44399999999999</v>
       </c>
       <c r="AA32">
-        <v>190.34200000000001</v>
+        <v>256.09199999999998</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>184.215</v>
+        <v>171.244</v>
       </c>
       <c r="D33">
-        <v>810.01099999999997</v>
+        <v>870.35500000000002</v>
       </c>
       <c r="E33">
-        <v>467.78399999999999</v>
+        <v>678.75</v>
       </c>
       <c r="F33">
-        <v>480.74700000000001</v>
+        <v>385.63900000000001</v>
       </c>
       <c r="G33">
-        <v>2400.6190000000001</v>
+        <v>2036.578</v>
       </c>
       <c r="H33">
-        <v>5095.9669999999996</v>
+        <v>3015.3130000000001</v>
       </c>
       <c r="I33">
-        <v>197.06899999999999</v>
+        <v>217.12200000000001</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3465,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>854.02599999999995</v>
+        <v>697.04200000000003</v>
       </c>
       <c r="O33">
-        <v>1143.259</v>
+        <v>875.47299999999996</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>109.675</v>
+        <v>-102.94199999999999</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3952.7080000000001</v>
+        <v>2139.84</v>
       </c>
       <c r="U33">
-        <v>1056.3969999999999</v>
+        <v>521.54</v>
       </c>
       <c r="V33">
-        <v>263.71899999999999</v>
+        <v>232.52199999999999</v>
       </c>
       <c r="W33">
-        <v>-100.063</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-99.69</v>
+        <v>-305.36399999999998</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-2.8780000000000001</v>
+        <v>31.706</v>
       </c>
       <c r="AA33">
-        <v>184.214</v>
+        <v>171.244</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>190.15</v>
+        <v>157.733</v>
       </c>
       <c r="D34">
-        <v>932.10799999999995</v>
+        <v>1048.2470000000001</v>
       </c>
       <c r="E34">
-        <v>569.83299999999997</v>
+        <v>741.32100000000003</v>
       </c>
       <c r="F34">
-        <v>549.16600000000005</v>
+        <v>430.63299999999998</v>
       </c>
       <c r="G34">
-        <v>2665.3679999999999</v>
+        <v>1984.425</v>
       </c>
       <c r="H34">
-        <v>5382.8580000000002</v>
+        <v>2934.4209999999998</v>
       </c>
       <c r="I34">
-        <v>204.98500000000001</v>
+        <v>160.09399999999999</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3548,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>921.31299999999999</v>
+        <v>479.17599999999999</v>
       </c>
       <c r="O34">
-        <v>1219.884</v>
+        <v>708.56700000000001</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>145.26300000000001</v>
+        <v>174.79499999999999</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="S34">
-        <v>13000</v>
+        <v>8919</v>
       </c>
       <c r="T34">
-        <v>4162.9740000000002</v>
+        <v>2225.8539999999998</v>
       </c>
       <c r="U34">
-        <v>1201.732</v>
+        <v>696.33500000000004</v>
       </c>
       <c r="V34">
-        <v>217.738</v>
+        <v>349.46100000000001</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-150.251</v>
       </c>
       <c r="X34">
-        <v>2.3730000000000002</v>
+        <v>-193.375</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-34.465000000000003</v>
+        <v>52.978000000000002</v>
       </c>
       <c r="AA34">
-        <v>190.15</v>
+        <v>157.733</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>140.173</v>
+        <v>48.537999999999997</v>
       </c>
       <c r="D35">
-        <v>766.05</v>
+        <v>436.69900000000001</v>
       </c>
       <c r="E35">
-        <v>453.06900000000002</v>
+        <v>420.08100000000002</v>
       </c>
       <c r="F35">
-        <v>451.69799999999998</v>
+        <v>195.995</v>
       </c>
       <c r="G35">
-        <v>2512.1370000000002</v>
+        <v>1827.8320000000001</v>
       </c>
       <c r="H35">
-        <v>5280.1450000000004</v>
+        <v>2794.1889999999999</v>
       </c>
       <c r="I35">
-        <v>170.47399999999999</v>
+        <v>79.453000000000003</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3631,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>622.52599999999995</v>
+        <v>302.16199999999998</v>
       </c>
       <c r="O35">
-        <v>964.85900000000004</v>
+        <v>535.71600000000001</v>
       </c>
       <c r="P35">
-        <v>56.372</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>-85.706000000000003</v>
+        <v>225.994</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4315.2860000000001</v>
+        <v>2258.473</v>
       </c>
       <c r="U35">
-        <v>1115.951</v>
+        <v>922.32899999999995</v>
       </c>
       <c r="V35">
-        <v>164.58199999999999</v>
+        <v>299.416</v>
       </c>
       <c r="W35">
-        <v>-200.68700000000001</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-213.381</v>
+        <v>-1.704</v>
       </c>
       <c r="Y35">
-        <v>43.277000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-2.161</v>
+        <v>-52.024000000000001</v>
       </c>
       <c r="AA35">
-        <v>140.173</v>
+        <v>48.537999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>223.65600000000001</v>
+        <v>161.87100000000001</v>
       </c>
       <c r="D36">
-        <v>954.84</v>
+        <v>669.10400000000004</v>
       </c>
       <c r="E36">
-        <v>583.91300000000001</v>
+        <v>519.43299999999999</v>
       </c>
       <c r="F36">
-        <v>575.36500000000001</v>
+        <v>351.61399999999998</v>
       </c>
       <c r="G36">
-        <v>2460.578</v>
+        <v>1944.8040000000001</v>
       </c>
       <c r="H36">
-        <v>5524.7830000000004</v>
+        <v>3144.366</v>
       </c>
       <c r="I36">
-        <v>214.76300000000001</v>
+        <v>137.36000000000001</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3714,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1027.701</v>
+        <v>429.53800000000001</v>
       </c>
       <c r="O36">
-        <v>1373.817</v>
+        <v>682.21</v>
       </c>
       <c r="P36">
-        <v>60.735999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-295.84500000000003</v>
+        <v>36.58</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4150.9660000000003</v>
+        <v>2462.1559999999999</v>
       </c>
       <c r="U36">
-        <v>820.18100000000004</v>
+        <v>958.90899999999999</v>
       </c>
       <c r="V36">
-        <v>110.636</v>
+        <v>256.27199999999999</v>
       </c>
       <c r="W36">
-        <v>-108.218</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-95.495999999999995</v>
+        <v>3.9420000000000002</v>
       </c>
       <c r="Y36">
-        <v>46.280999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-7.1470000000000002</v>
+        <v>-221.226</v>
       </c>
       <c r="AA36">
-        <v>223.65600000000001</v>
+        <v>161.87100000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>227.86600000000001</v>
+        <v>215.13300000000001</v>
       </c>
       <c r="D37">
-        <v>934.38300000000004</v>
+        <v>781.25400000000002</v>
       </c>
       <c r="E37">
-        <v>558.29899999999998</v>
+        <v>573.84699999999998</v>
       </c>
       <c r="F37">
-        <v>567.45799999999997</v>
+        <v>409.74200000000002</v>
       </c>
       <c r="G37">
-        <v>2757.8429999999998</v>
+        <v>2078.9360000000001</v>
       </c>
       <c r="H37">
-        <v>5755.1049999999996</v>
+        <v>3516.5509999999999</v>
       </c>
       <c r="I37">
-        <v>235.548</v>
+        <v>185.66800000000001</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3797,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1042.9549999999999</v>
+        <v>712.04499999999996</v>
       </c>
       <c r="O37">
-        <v>1374.211</v>
+        <v>961.15300000000002</v>
       </c>
       <c r="P37">
-        <v>56.292999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>157.184</v>
+        <v>52.853999999999999</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4380.8940000000002</v>
+        <v>2555.3980000000001</v>
       </c>
       <c r="U37">
-        <v>976.40200000000004</v>
+        <v>1011.763</v>
       </c>
       <c r="V37">
-        <v>188.952</v>
+        <v>292.86700000000002</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-1.7999999999999999E-2</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="Y37">
-        <v>42.854999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>9.7710000000000008</v>
+        <v>-242.154</v>
       </c>
       <c r="AA37">
-        <v>227.86600000000001</v>
+        <v>215.13300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>360.791</v>
+        <v>278.40800000000002</v>
       </c>
       <c r="D38">
-        <v>1102.232</v>
+        <v>1059.383</v>
       </c>
       <c r="E38">
-        <v>706.76300000000003</v>
+        <v>874.11</v>
       </c>
       <c r="F38">
-        <v>639.45500000000004</v>
+        <v>486.76</v>
       </c>
       <c r="G38">
-        <v>3057.85</v>
+        <v>2396.0790000000002</v>
       </c>
       <c r="H38">
-        <v>6166.799</v>
+        <v>3828.0819999999999</v>
       </c>
       <c r="I38">
-        <v>240.83099999999999</v>
+        <v>203.38800000000001</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3880,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1035.933</v>
+        <v>685.87599999999998</v>
       </c>
       <c r="O38">
-        <v>1373.3030000000001</v>
+        <v>991.63499999999999</v>
       </c>
       <c r="P38">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>50.2</v>
+        <v>79.817999999999998</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="S38">
-        <v>15000</v>
+        <v>8437</v>
       </c>
       <c r="T38">
-        <v>4793.4960000000001</v>
+        <v>2836.4470000000001</v>
       </c>
       <c r="U38">
-        <v>1027.567</v>
+        <v>1091.5809999999999</v>
       </c>
       <c r="V38">
-        <v>234.37899999999999</v>
+        <v>245.90100000000001</v>
       </c>
       <c r="W38">
-        <v>-108.35899999999999</v>
+        <v>-149.846</v>
       </c>
       <c r="X38">
-        <v>-107.133</v>
+        <v>-165.19</v>
       </c>
       <c r="Y38">
-        <v>49.238</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-31.041</v>
+        <v>24.408000000000001</v>
       </c>
       <c r="AA38">
-        <v>360.791</v>
+        <v>278.40800000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>161.18</v>
+        <v>37.329000000000001</v>
       </c>
       <c r="D39">
-        <v>856.10799999999995</v>
+        <v>431.06700000000001</v>
       </c>
       <c r="E39">
-        <v>500.24200000000002</v>
+        <v>418.52</v>
       </c>
       <c r="F39">
-        <v>506.94</v>
+        <v>209.10900000000001</v>
       </c>
       <c r="G39">
-        <v>2928.886</v>
+        <v>2209.3589999999999</v>
       </c>
       <c r="H39">
-        <v>6053.9930000000004</v>
+        <v>3551.5279999999998</v>
       </c>
       <c r="I39">
-        <v>200.28100000000001</v>
+        <v>109.904</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3963,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>781.87199999999996</v>
+        <v>679.55600000000004</v>
       </c>
       <c r="O39">
-        <v>1119.5930000000001</v>
+        <v>996.59299999999996</v>
       </c>
       <c r="P39">
-        <v>52.834000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>21.248999999999999</v>
+        <v>199.762</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4934.3999999999996</v>
+        <v>2554.9349999999999</v>
       </c>
       <c r="U39">
-        <v>1048.604</v>
+        <v>1291.3430000000001</v>
       </c>
       <c r="V39">
-        <v>225.874</v>
+        <v>200.131</v>
       </c>
       <c r="W39">
-        <v>-108.571</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-120.151</v>
+        <v>-43.073</v>
       </c>
       <c r="Y39">
-        <v>52.834000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-32.406999999999996</v>
+        <v>71.77</v>
       </c>
       <c r="AA39">
-        <v>161.18</v>
+        <v>37.329000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>184.18</v>
+        <v>134.815</v>
       </c>
       <c r="D40">
-        <v>869.86699999999996</v>
+        <v>728.76499999999999</v>
       </c>
       <c r="E40">
-        <v>523.90099999999995</v>
+        <v>499.32400000000001</v>
       </c>
       <c r="F40">
-        <v>515.42999999999995</v>
+        <v>391.65199999999999</v>
       </c>
       <c r="G40">
-        <v>3258.4389999999999</v>
+        <v>2159.5169999999998</v>
       </c>
       <c r="H40">
-        <v>6220.0420000000004</v>
+        <v>3431.3589999999999</v>
       </c>
       <c r="I40">
-        <v>193.21600000000001</v>
+        <v>150.51900000000001</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +4046,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1163.9269999999999</v>
+        <v>436.43599999999998</v>
       </c>
       <c r="O40">
-        <v>1479.181</v>
+        <v>779.745</v>
       </c>
       <c r="P40">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>306.32</v>
+        <v>-118.17400000000001</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4740.8609999999999</v>
+        <v>2651.614</v>
       </c>
       <c r="U40">
-        <v>1354.924</v>
+        <v>1173.1690000000001</v>
       </c>
       <c r="V40">
-        <v>199.23699999999999</v>
+        <v>181.73599999999999</v>
       </c>
       <c r="W40">
-        <v>-108.879</v>
+        <v>-299.10300000000001</v>
       </c>
       <c r="X40">
-        <v>-93.98</v>
+        <v>-333.00799999999998</v>
       </c>
       <c r="Y40">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>252.96600000000001</v>
+        <v>53.518000000000001</v>
       </c>
       <c r="AA40">
-        <v>184.18</v>
+        <v>134.816</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>313.416</v>
+        <v>279.55200000000002</v>
       </c>
       <c r="D41">
-        <v>1109.194</v>
+        <v>692.36400000000003</v>
       </c>
       <c r="E41">
-        <v>658</v>
+        <v>524.92399999999998</v>
       </c>
       <c r="F41">
-        <v>667.98299999999995</v>
+        <v>344.02</v>
       </c>
       <c r="G41">
-        <v>3341.87</v>
+        <v>2371.3980000000001</v>
       </c>
       <c r="H41">
-        <v>6550.6689999999999</v>
+        <v>3658.018</v>
       </c>
       <c r="I41">
-        <v>235.46700000000001</v>
+        <v>194.89400000000001</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1122.9559999999999</v>
+        <v>569.52700000000004</v>
       </c>
       <c r="O41">
-        <v>1446.328</v>
+        <v>807.76900000000001</v>
       </c>
       <c r="P41">
-        <v>58.415999999999997</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-131.398</v>
+        <v>62.795999999999999</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5104.3410000000003</v>
+        <v>2850.2489999999998</v>
       </c>
       <c r="U41">
-        <v>1223.5160000000001</v>
+        <v>1235.9649999999999</v>
       </c>
       <c r="V41">
-        <v>274.33800000000002</v>
+        <v>204.34800000000001</v>
       </c>
       <c r="W41">
-        <v>-116.52500000000001</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-117.71599999999999</v>
+        <v>-137.654</v>
       </c>
       <c r="Y41">
-        <v>58.415999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-114.492</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AA41">
-        <v>313.41699999999997</v>
+        <v>279.55200000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44191</v>
+        <v>40537</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>132.90700000000001</v>
+      </c>
+      <c r="D42">
+        <v>837.71500000000003</v>
+      </c>
+      <c r="E42">
+        <v>747.24900000000002</v>
+      </c>
+      <c r="F42">
+        <v>422.59300000000002</v>
+      </c>
+      <c r="G42">
+        <v>2498.7550000000001</v>
+      </c>
+      <c r="H42">
+        <v>3988.6880000000001</v>
+      </c>
+      <c r="I42">
+        <v>132.34800000000001</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>669.03700000000003</v>
+      </c>
+      <c r="O42">
+        <v>939.12599999999998</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>24.971</v>
+      </c>
+      <c r="R42">
+        <v>40537</v>
+      </c>
+      <c r="S42">
+        <v>8897</v>
+      </c>
+      <c r="T42">
+        <v>3049.5619999999999</v>
+      </c>
+      <c r="U42">
+        <v>1260.9359999999999</v>
+      </c>
+      <c r="V42">
+        <v>184.422</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-146.73099999999999</v>
+      </c>
+      <c r="AA42">
+        <v>132.90700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>95.481999999999999</v>
+      </c>
+      <c r="D43">
+        <v>507.834</v>
+      </c>
+      <c r="E43">
+        <v>434.935</v>
+      </c>
+      <c r="F43">
+        <v>238.374</v>
+      </c>
+      <c r="G43">
+        <v>2192.837</v>
+      </c>
+      <c r="H43">
+        <v>3937.509</v>
+      </c>
+      <c r="I43">
+        <v>118.845</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>469.91300000000001</v>
+      </c>
+      <c r="O43">
+        <v>744.28</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-50.320999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40628</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3193.2289999999998</v>
+      </c>
+      <c r="U43">
+        <v>1210.615</v>
+      </c>
+      <c r="V43">
+        <v>207.59899999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-264.649</v>
+      </c>
+      <c r="AA43">
+        <v>95.481999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40719</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>109.477</v>
+      </c>
+      <c r="D44">
+        <v>674.09900000000005</v>
+      </c>
+      <c r="E44">
+        <v>493.05700000000002</v>
+      </c>
+      <c r="F44">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="G44">
+        <v>2462.527</v>
+      </c>
+      <c r="H44">
+        <v>4198.4549999999999</v>
+      </c>
+      <c r="I44">
+        <v>125.68</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>916.08699999999999</v>
+      </c>
+      <c r="O44">
+        <v>1235.761</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>208.256</v>
+      </c>
+      <c r="R44">
+        <v>40719</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2962.694</v>
+      </c>
+      <c r="U44">
+        <v>1418.8710000000001</v>
+      </c>
+      <c r="V44">
+        <v>203.35400000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1.37</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>7.3179999999999996</v>
+      </c>
+      <c r="AA44">
+        <v>109.477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>150.381</v>
+      </c>
+      <c r="D45">
+        <v>666.99300000000005</v>
+      </c>
+      <c r="E45">
+        <v>519.226</v>
+      </c>
+      <c r="F45">
+        <v>344.33100000000002</v>
+      </c>
+      <c r="G45">
+        <v>2553.9140000000002</v>
+      </c>
+      <c r="H45">
+        <v>4334.8850000000002</v>
+      </c>
+      <c r="I45">
+        <v>182.65100000000001</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>914.072</v>
+      </c>
+      <c r="O45">
+        <v>1266.693</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-29.465</v>
+      </c>
+      <c r="R45">
+        <v>40810</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3068.192</v>
+      </c>
+      <c r="U45">
+        <v>1389.4059999999999</v>
+      </c>
+      <c r="V45">
+        <v>186.523</v>
+      </c>
+      <c r="W45">
+        <v>-154.83500000000001</v>
+      </c>
+      <c r="X45">
+        <v>-153.24700000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>21.106000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>150.381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>165.55600000000001</v>
+      </c>
+      <c r="D46">
+        <v>909.64400000000001</v>
+      </c>
+      <c r="E46">
+        <v>607.45000000000005</v>
+      </c>
+      <c r="F46">
+        <v>433.78699999999998</v>
+      </c>
+      <c r="G46">
+        <v>2574.837</v>
+      </c>
+      <c r="H46">
+        <v>4471.3379999999997</v>
+      </c>
+      <c r="I46">
+        <v>164.01</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>858.279</v>
+      </c>
+      <c r="O46">
+        <v>1214.7570000000001</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-102.246</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>9229</v>
+      </c>
+      <c r="T46">
+        <v>3256.5810000000001</v>
+      </c>
+      <c r="U46">
+        <v>1287.1600000000001</v>
+      </c>
+      <c r="V46">
+        <v>224.858</v>
+      </c>
+      <c r="W46">
+        <v>-155.928</v>
+      </c>
+      <c r="X46">
+        <v>-159.364</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-157.11699999999999</v>
+      </c>
+      <c r="AA46">
+        <v>165.55600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>86.858000000000004</v>
+      </c>
+      <c r="D47">
+        <v>556.59699999999998</v>
+      </c>
+      <c r="E47">
+        <v>430.14499999999998</v>
+      </c>
+      <c r="F47">
+        <v>283.75900000000001</v>
+      </c>
+      <c r="G47">
+        <v>2349.2660000000001</v>
+      </c>
+      <c r="H47">
+        <v>4324.7929999999997</v>
+      </c>
+      <c r="I47">
+        <v>109.232</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>594.54200000000003</v>
+      </c>
+      <c r="O47">
+        <v>945.38800000000003</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>-1.369</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3379.4050000000002</v>
+      </c>
+      <c r="U47">
+        <v>1285.7909999999999</v>
+      </c>
+      <c r="V47">
+        <v>122.22799999999999</v>
+      </c>
+      <c r="W47">
+        <v>-77.915000000000006</v>
+      </c>
+      <c r="X47">
+        <v>-74.483000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-43.287999999999997</v>
+      </c>
+      <c r="AA47">
+        <v>86.858000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>185.90299999999999</v>
+      </c>
+      <c r="D48">
+        <v>718.154</v>
+      </c>
+      <c r="E48">
+        <v>486.39499999999998</v>
+      </c>
+      <c r="F48">
+        <v>400.81299999999999</v>
+      </c>
+      <c r="G48">
+        <v>2381.2139999999999</v>
+      </c>
+      <c r="H48">
+        <v>4462.7619999999997</v>
+      </c>
+      <c r="I48">
+        <v>138.58199999999999</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>901.952</v>
+      </c>
+      <c r="O48">
+        <v>1252.075</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>-18.071999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3210.6869999999999</v>
+      </c>
+      <c r="U48">
+        <v>1267.7190000000001</v>
+      </c>
+      <c r="V48">
+        <v>222.905</v>
+      </c>
+      <c r="W48">
+        <v>-87.722999999999999</v>
+      </c>
+      <c r="X48">
+        <v>-86.177999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-131.995</v>
+      </c>
+      <c r="AA48">
+        <v>185.904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>140.34800000000001</v>
+      </c>
+      <c r="D49">
+        <v>672.37599999999998</v>
+      </c>
+      <c r="E49">
+        <v>508.72500000000002</v>
+      </c>
+      <c r="F49">
+        <v>359.05500000000001</v>
+      </c>
+      <c r="G49">
+        <v>2473.0479999999998</v>
+      </c>
+      <c r="H49">
+        <v>4630.7420000000002</v>
+      </c>
+      <c r="I49">
+        <v>147.86600000000001</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>883.55399999999997</v>
+      </c>
+      <c r="O49">
+        <v>1242.9949999999999</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>-20.646000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3387.7469999999998</v>
+      </c>
+      <c r="U49">
+        <v>1247.0730000000001</v>
+      </c>
+      <c r="V49">
+        <v>164.90100000000001</v>
+      </c>
+      <c r="W49">
+        <v>-87.748000000000005</v>
+      </c>
+      <c r="X49">
+        <v>-86.486000000000004</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-93.216999999999999</v>
+      </c>
+      <c r="AA49">
+        <v>140.34800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>129.29400000000001</v>
+      </c>
+      <c r="D50">
+        <v>768.548</v>
+      </c>
+      <c r="E50">
+        <v>603.673</v>
+      </c>
+      <c r="F50">
+        <v>394.85399999999998</v>
+      </c>
+      <c r="G50">
+        <v>2536.12</v>
+      </c>
+      <c r="H50">
+        <v>4819.1239999999998</v>
+      </c>
+      <c r="I50">
+        <v>131.26300000000001</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>909.02599999999995</v>
+      </c>
+      <c r="O50">
+        <v>1287.328</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>-15.893000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>9777</v>
+      </c>
+      <c r="T50">
+        <v>3531.7959999999998</v>
+      </c>
+      <c r="U50">
+        <v>1231.18</v>
+      </c>
+      <c r="V50">
+        <v>174.71100000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-2.702</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-175.495</v>
+      </c>
+      <c r="AA50">
+        <v>129.29400000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>88.665999999999997</v>
+      </c>
+      <c r="D51">
+        <v>531.95699999999999</v>
+      </c>
+      <c r="E51">
+        <v>450.59399999999999</v>
+      </c>
+      <c r="F51">
+        <v>276.13299999999998</v>
+      </c>
+      <c r="G51">
+        <v>2313.9549999999999</v>
+      </c>
+      <c r="H51">
+        <v>4570.42</v>
+      </c>
+      <c r="I51">
+        <v>112.17</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>605.101</v>
+      </c>
+      <c r="O51">
+        <v>952.09500000000003</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>-137.74</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3618.3249999999998</v>
+      </c>
+      <c r="U51">
+        <v>1093.44</v>
+      </c>
+      <c r="V51">
+        <v>59.363</v>
+      </c>
+      <c r="W51">
+        <v>-175.95599999999999</v>
+      </c>
+      <c r="X51">
+        <v>-174.286</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>12.321</v>
+      </c>
+      <c r="AA51">
+        <v>88.665999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>172.49100000000001</v>
+      </c>
+      <c r="D52">
+        <v>696.56299999999999</v>
+      </c>
+      <c r="E52">
+        <v>484.24599999999998</v>
+      </c>
+      <c r="F52">
+        <v>383.64</v>
+      </c>
+      <c r="G52">
+        <v>2346.259</v>
+      </c>
+      <c r="H52">
+        <v>4599.1809999999996</v>
+      </c>
+      <c r="I52">
+        <v>128.078</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>889.73500000000001</v>
+      </c>
+      <c r="O52">
+        <v>1232.8240000000001</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>-9.9499999999999993</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3366.357</v>
+      </c>
+      <c r="U52">
+        <v>1083.49</v>
+      </c>
+      <c r="V52">
+        <v>204.298</v>
+      </c>
+      <c r="W52">
+        <v>-87.900999999999996</v>
+      </c>
+      <c r="X52">
+        <v>-101.806</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-30.75</v>
+      </c>
+      <c r="AA52">
+        <v>172.49100000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>187.67</v>
+      </c>
+      <c r="D53">
+        <v>643.63699999999994</v>
+      </c>
+      <c r="E53">
+        <v>475.70699999999999</v>
+      </c>
+      <c r="F53">
+        <v>352.88900000000001</v>
+      </c>
+      <c r="G53">
+        <v>2444.6379999999999</v>
+      </c>
+      <c r="H53">
+        <v>4823.2259999999997</v>
+      </c>
+      <c r="I53">
+        <v>151.798</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>974.03300000000002</v>
+      </c>
+      <c r="O53">
+        <v>1265.722</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>-14.79</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3557.5039999999999</v>
+      </c>
+      <c r="U53">
+        <v>1068.7</v>
+      </c>
+      <c r="V53">
+        <v>216.61</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-8.09</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-119.333</v>
+      </c>
+      <c r="AA53">
+        <v>187.66900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>163.58500000000001</v>
+      </c>
+      <c r="D54">
+        <v>759.69500000000005</v>
+      </c>
+      <c r="E54">
+        <v>564.58600000000001</v>
+      </c>
+      <c r="F54">
+        <v>394.63799999999998</v>
+      </c>
+      <c r="G54">
+        <v>2595.636</v>
+      </c>
+      <c r="H54">
+        <v>4879.6030000000001</v>
+      </c>
+      <c r="I54">
+        <v>146.58199999999999</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>905.30399999999997</v>
+      </c>
+      <c r="O54">
+        <v>1219.8969999999999</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>110.449</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>10086</v>
+      </c>
+      <c r="T54">
+        <v>3659.7060000000001</v>
+      </c>
+      <c r="U54">
+        <v>1179.1489999999999</v>
+      </c>
+      <c r="V54">
+        <v>149.81299999999999</v>
+      </c>
+      <c r="W54">
+        <v>-87.85</v>
+      </c>
+      <c r="X54">
+        <v>-122.65600000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>62.101999999999997</v>
+      </c>
+      <c r="AA54">
+        <v>163.58500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>118.818</v>
+      </c>
+      <c r="D55">
+        <v>583.221</v>
+      </c>
+      <c r="E55">
+        <v>427.45699999999999</v>
+      </c>
+      <c r="F55">
+        <v>330.834</v>
+      </c>
+      <c r="G55">
+        <v>2387.4949999999999</v>
+      </c>
+      <c r="H55">
+        <v>4738.9139999999998</v>
+      </c>
+      <c r="I55">
+        <v>124.241</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>697.10799999999995</v>
+      </c>
+      <c r="O55">
+        <v>986.54399999999998</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>-42.457999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3752.37</v>
+      </c>
+      <c r="U55">
+        <v>1136.691</v>
+      </c>
+      <c r="V55">
+        <v>71.173000000000002</v>
+      </c>
+      <c r="W55">
+        <v>-87.852999999999994</v>
+      </c>
+      <c r="X55">
+        <v>-117.59099999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-74.909000000000006</v>
+      </c>
+      <c r="AA55">
+        <v>118.818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>181.982</v>
+      </c>
+      <c r="D56">
+        <v>777.84799999999996</v>
+      </c>
+      <c r="E56">
+        <v>496.97899999999998</v>
+      </c>
+      <c r="F56">
+        <v>444.48500000000001</v>
+      </c>
+      <c r="G56">
+        <v>2496.569</v>
+      </c>
+      <c r="H56">
+        <v>4741.8019999999997</v>
+      </c>
+      <c r="I56">
+        <v>132.58099999999999</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>969.25</v>
+      </c>
+      <c r="O56">
+        <v>1261.1859999999999</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>98.194999999999993</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3480.616</v>
+      </c>
+      <c r="U56">
+        <v>1234.886</v>
+      </c>
+      <c r="V56">
+        <v>164.179</v>
+      </c>
+      <c r="W56">
+        <v>-87.721000000000004</v>
+      </c>
+      <c r="X56">
+        <v>-216.75899999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>130.84399999999999</v>
+      </c>
+      <c r="AA56">
+        <v>181.983</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-146.834</v>
+      </c>
+      <c r="D57">
+        <v>706.28300000000002</v>
+      </c>
+      <c r="E57">
+        <v>478.72199999999998</v>
+      </c>
+      <c r="F57">
+        <v>398.24599999999998</v>
+      </c>
+      <c r="G57">
+        <v>2421.4850000000001</v>
+      </c>
+      <c r="H57">
+        <v>4669.3639999999996</v>
+      </c>
+      <c r="I57">
+        <v>144.88200000000001</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1123.4829999999999</v>
+      </c>
+      <c r="O57">
+        <v>1432.951</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>-80.328000000000003</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3236.413</v>
+      </c>
+      <c r="U57">
+        <v>1154.558</v>
+      </c>
+      <c r="V57">
+        <v>142.34200000000001</v>
+      </c>
+      <c r="W57">
+        <v>-92.448999999999998</v>
+      </c>
+      <c r="X57">
+        <v>-169.22399999999999</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>5.5380000000000003</v>
+      </c>
+      <c r="AA57">
+        <v>-146.834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>210.245</v>
+      </c>
+      <c r="D58">
+        <v>803.30600000000004</v>
+      </c>
+      <c r="E58">
+        <v>570.19100000000003</v>
+      </c>
+      <c r="F58">
+        <v>430.84800000000001</v>
+      </c>
+      <c r="G58">
+        <v>2510.9760000000001</v>
+      </c>
+      <c r="H58">
+        <v>4693.3029999999999</v>
+      </c>
+      <c r="I58">
+        <v>149.09399999999999</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1033.261</v>
+      </c>
+      <c r="O58">
+        <v>1289.9359999999999</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>41.71</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>11185</v>
+      </c>
+      <c r="T58">
+        <v>3403.3670000000002</v>
+      </c>
+      <c r="U58">
+        <v>1196.268</v>
+      </c>
+      <c r="V58">
+        <v>145.017</v>
+      </c>
+      <c r="W58">
+        <v>-92.052000000000007</v>
+      </c>
+      <c r="X58">
+        <v>-96.048000000000002</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>28.721</v>
+      </c>
+      <c r="AA58">
+        <v>210.245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>66.793000000000006</v>
+      </c>
+      <c r="D59">
+        <v>585.39400000000001</v>
+      </c>
+      <c r="E59">
+        <v>425.65</v>
+      </c>
+      <c r="F59">
+        <v>344.12200000000001</v>
+      </c>
+      <c r="G59">
+        <v>2500.3069999999998</v>
+      </c>
+      <c r="H59">
+        <v>4543.2790000000005</v>
+      </c>
+      <c r="I59">
+        <v>125.745</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>824.26099999999997</v>
+      </c>
+      <c r="O59">
+        <v>1065.6489999999999</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>-24.88</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3477.63</v>
+      </c>
+      <c r="U59">
+        <v>1171.3879999999999</v>
+      </c>
+      <c r="V59">
+        <v>81.655000000000001</v>
+      </c>
+      <c r="W59">
+        <v>-91.963999999999999</v>
+      </c>
+      <c r="X59">
+        <v>-107.66800000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>54.01</v>
+      </c>
+      <c r="AA59">
+        <v>66.793000000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>137.75200000000001</v>
+      </c>
+      <c r="D60">
+        <v>773.83</v>
+      </c>
+      <c r="E60">
+        <v>502.03399999999999</v>
+      </c>
+      <c r="F60">
+        <v>419.25</v>
+      </c>
+      <c r="G60">
+        <v>2283.2959999999998</v>
+      </c>
+      <c r="H60">
+        <v>4423.4089999999997</v>
+      </c>
+      <c r="I60">
+        <v>146.08799999999999</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>961.68100000000004</v>
+      </c>
+      <c r="O60">
+        <v>1214.904</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>-233.20500000000001</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3208.5050000000001</v>
+      </c>
+      <c r="U60">
+        <v>938.18299999999999</v>
+      </c>
+      <c r="V60">
+        <v>-97.358999999999995</v>
+      </c>
+      <c r="W60">
+        <v>-91.960999999999999</v>
+      </c>
+      <c r="X60">
+        <v>-123.99299999999999</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>6.6849999999999996</v>
+      </c>
+      <c r="AA60">
+        <v>137.75299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>119.29900000000001</v>
+      </c>
+      <c r="D61">
+        <v>679.69</v>
+      </c>
+      <c r="E61">
+        <v>431.94200000000001</v>
+      </c>
+      <c r="F61">
+        <v>362.19</v>
+      </c>
+      <c r="G61">
+        <v>2231.953</v>
+      </c>
+      <c r="H61">
+        <v>4388.4719999999998</v>
+      </c>
+      <c r="I61">
+        <v>158.66300000000001</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>894.65599999999995</v>
+      </c>
+      <c r="O61">
+        <v>1153.787</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>-23.276</v>
+      </c>
+      <c r="R61">
+        <v>42273</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3234.6849999999999</v>
+      </c>
+      <c r="U61">
+        <v>914.90700000000004</v>
+      </c>
+      <c r="V61">
+        <v>137.83500000000001</v>
+      </c>
+      <c r="W61">
+        <v>-97.322000000000003</v>
+      </c>
+      <c r="X61">
+        <v>-148.07300000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>10.141</v>
+      </c>
+      <c r="AA61">
+        <v>119.29900000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>132.38300000000001</v>
+      </c>
+      <c r="D62">
+        <v>781.35699999999997</v>
+      </c>
+      <c r="E62">
+        <v>531.48099999999999</v>
+      </c>
+      <c r="F62">
+        <v>413.14299999999997</v>
+      </c>
+      <c r="G62">
+        <v>2211.087</v>
+      </c>
+      <c r="H62">
+        <v>4499.3909999999996</v>
+      </c>
+      <c r="I62">
+        <v>178.905</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>865.99800000000005</v>
+      </c>
+      <c r="O62">
+        <v>1154.2650000000001</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>-81.837000000000003</v>
+      </c>
+      <c r="R62">
+        <v>42364</v>
+      </c>
+      <c r="S62">
+        <v>11651</v>
+      </c>
+      <c r="T62">
+        <v>3345.1260000000002</v>
+      </c>
+      <c r="U62">
+        <v>833.07</v>
+      </c>
+      <c r="V62">
+        <v>158.33600000000001</v>
+      </c>
+      <c r="W62">
+        <v>-96.87</v>
+      </c>
+      <c r="X62">
+        <v>-120.358</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-67.616</v>
+      </c>
+      <c r="AA62">
+        <v>132.38300000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42455</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>88.091999999999999</v>
+      </c>
+      <c r="D63">
+        <v>624.04</v>
+      </c>
+      <c r="E63">
+        <v>408.28300000000002</v>
+      </c>
+      <c r="F63">
+        <v>339.85</v>
+      </c>
+      <c r="G63">
+        <v>2129.1329999999998</v>
+      </c>
+      <c r="H63">
+        <v>4410.3239999999996</v>
+      </c>
+      <c r="I63">
+        <v>137.16200000000001</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>680.72</v>
+      </c>
+      <c r="O63">
+        <v>973.077</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>24.609000000000002</v>
+      </c>
+      <c r="R63">
+        <v>42455</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3437.2469999999998</v>
+      </c>
+      <c r="U63">
+        <v>857.67899999999997</v>
+      </c>
+      <c r="V63">
+        <v>129.387</v>
+      </c>
+      <c r="W63">
+        <v>-96.566000000000003</v>
+      </c>
+      <c r="X63">
+        <v>-116.273</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>86.394000000000005</v>
+      </c>
+      <c r="AA63">
+        <v>88.091999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42546</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>161.06299999999999</v>
+      </c>
+      <c r="D64">
+        <v>811.60900000000004</v>
+      </c>
+      <c r="E64">
+        <v>510.30900000000003</v>
+      </c>
+      <c r="F64">
+        <v>462.95800000000003</v>
+      </c>
+      <c r="G64">
+        <v>2212.587</v>
+      </c>
+      <c r="H64">
+        <v>4527.5829999999996</v>
+      </c>
+      <c r="I64">
+        <v>151.904</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1010.429</v>
+      </c>
+      <c r="O64">
+        <v>1308.748</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>-56.215000000000003</v>
+      </c>
+      <c r="R64">
+        <v>42546</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3218.835</v>
+      </c>
+      <c r="U64">
+        <v>801.46400000000006</v>
+      </c>
+      <c r="V64">
+        <v>149.98500000000001</v>
+      </c>
+      <c r="W64">
+        <v>-96.545000000000002</v>
+      </c>
+      <c r="X64">
+        <v>-113.136</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-77.301000000000002</v>
+      </c>
+      <c r="AA64">
+        <v>161.06399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42637</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>125.054</v>
+      </c>
+      <c r="D65">
+        <v>722.25</v>
+      </c>
+      <c r="E65">
+        <v>461.35500000000002</v>
+      </c>
+      <c r="F65">
+        <v>405.98</v>
+      </c>
+      <c r="G65">
+        <v>2247.4589999999998</v>
+      </c>
+      <c r="H65">
+        <v>4591.9059999999999</v>
+      </c>
+      <c r="I65">
+        <v>148.03</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>919.995</v>
+      </c>
+      <c r="O65">
+        <v>1229.6769999999999</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>111.095</v>
+      </c>
+      <c r="R65">
+        <v>42637</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3362.2289999999998</v>
+      </c>
+      <c r="U65">
+        <v>912.55899999999997</v>
+      </c>
+      <c r="V65">
+        <v>212.994</v>
+      </c>
+      <c r="W65">
+        <v>-96.22</v>
+      </c>
+      <c r="X65">
+        <v>-114.752</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>23.963999999999999</v>
+      </c>
+      <c r="AA65">
+        <v>125.054</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>136.60499999999999</v>
+      </c>
+      <c r="D66">
+        <v>860.76700000000005</v>
+      </c>
+      <c r="E66">
+        <v>527.06200000000001</v>
+      </c>
+      <c r="F66">
+        <v>470.78199999999998</v>
+      </c>
+      <c r="G66">
+        <v>2263.0160000000001</v>
+      </c>
+      <c r="H66">
+        <v>4525.1329999999998</v>
+      </c>
+      <c r="I66">
+        <v>172.404</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>782.73500000000001</v>
+      </c>
+      <c r="O66">
+        <v>1107.1300000000001</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>-65.676000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>11600</v>
+      </c>
+      <c r="T66">
+        <v>3418.0030000000002</v>
+      </c>
+      <c r="U66">
+        <v>846.88300000000004</v>
+      </c>
+      <c r="V66">
+        <v>213.316</v>
+      </c>
+      <c r="W66">
+        <v>-192.12100000000001</v>
+      </c>
+      <c r="X66">
+        <v>-217.51499999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>136.60499999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>238.404</v>
+      </c>
+      <c r="D67">
+        <v>641.51</v>
+      </c>
+      <c r="E67">
+        <v>391.34500000000003</v>
+      </c>
+      <c r="F67">
+        <v>372.80599999999998</v>
+      </c>
+      <c r="G67">
+        <v>2156.91</v>
+      </c>
+      <c r="H67">
+        <v>4600.6809999999996</v>
+      </c>
+      <c r="I67">
+        <v>136.90100000000001</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>571.45899999999995</v>
+      </c>
+      <c r="O67">
+        <v>898.61900000000003</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>-13.302</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3702.0619999999999</v>
+      </c>
+      <c r="U67">
+        <v>833.577</v>
+      </c>
+      <c r="V67">
+        <v>120.395</v>
+      </c>
+      <c r="W67">
+        <v>-96.028000000000006</v>
+      </c>
+      <c r="X67">
+        <v>-127.35299999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>13.477</v>
+      </c>
+      <c r="AA67">
+        <v>238.404</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>176.97800000000001</v>
+      </c>
+      <c r="D68">
+        <v>831.48599999999999</v>
+      </c>
+      <c r="E68">
+        <v>514.94200000000001</v>
+      </c>
+      <c r="F68">
+        <v>484.13</v>
+      </c>
+      <c r="G68">
+        <v>2304.9340000000002</v>
+      </c>
+      <c r="H68">
+        <v>4748.7719999999999</v>
+      </c>
+      <c r="I68">
+        <v>161.398</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>928.50900000000001</v>
+      </c>
+      <c r="O68">
+        <v>1264.325</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3484.4470000000001</v>
+      </c>
+      <c r="U68">
+        <v>859.56</v>
+      </c>
+      <c r="V68">
+        <v>143.43199999999999</v>
+      </c>
+      <c r="W68">
+        <v>-95.662999999999997</v>
+      </c>
+      <c r="X68">
+        <v>-121.56100000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>21.361999999999998</v>
+      </c>
+      <c r="AA68">
+        <v>176.97900000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>151.07400000000001</v>
+      </c>
+      <c r="D69">
+        <v>751.24400000000003</v>
+      </c>
+      <c r="E69">
+        <v>457.39100000000002</v>
+      </c>
+      <c r="F69">
+        <v>437.52300000000002</v>
+      </c>
+      <c r="G69">
+        <v>2332.4740000000002</v>
+      </c>
+      <c r="H69">
+        <v>4835.3909999999996</v>
+      </c>
+      <c r="I69">
+        <v>158.59100000000001</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>846.04499999999996</v>
+      </c>
+      <c r="O69">
+        <v>1195.7059999999999</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>31.719000000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3639.6849999999999</v>
+      </c>
+      <c r="U69">
+        <v>891.279</v>
+      </c>
+      <c r="V69">
+        <v>198.75</v>
+      </c>
+      <c r="W69">
+        <v>-95.626999999999995</v>
+      </c>
+      <c r="X69">
+        <v>-106.19799999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-17.509</v>
+      </c>
+      <c r="AA69">
+        <v>151.07400000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>142.55099999999999</v>
+      </c>
+      <c r="D70">
+        <v>897.31899999999996</v>
+      </c>
+      <c r="E70">
+        <v>590.88199999999995</v>
+      </c>
+      <c r="F70">
+        <v>503.48200000000003</v>
+      </c>
+      <c r="G70">
+        <v>2346.1379999999999</v>
+      </c>
+      <c r="H70">
+        <v>4948.2889999999998</v>
+      </c>
+      <c r="I70">
+        <v>169.64</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>792.11500000000001</v>
+      </c>
+      <c r="O70">
+        <v>1095.8699999999999</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>12300</v>
+      </c>
+      <c r="T70">
+        <v>3852.4189999999999</v>
+      </c>
+      <c r="U70">
+        <v>891.48800000000006</v>
+      </c>
+      <c r="V70">
+        <v>198.26499999999999</v>
+      </c>
+      <c r="W70">
+        <v>-95.658000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-93.3</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>30.324999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>142.55099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>129.374</v>
+      </c>
+      <c r="D71">
+        <v>710.87199999999996</v>
+      </c>
+      <c r="E71">
+        <v>409.70400000000001</v>
+      </c>
+      <c r="F71">
+        <v>426.53500000000003</v>
+      </c>
+      <c r="G71">
+        <v>2191.2829999999999</v>
+      </c>
+      <c r="H71">
+        <v>4855.2219999999998</v>
+      </c>
+      <c r="I71">
+        <v>136.13200000000001</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>557.84299999999996</v>
+      </c>
+      <c r="O71">
+        <v>858.029</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>7.5010000000000003</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3997.1930000000002</v>
+      </c>
+      <c r="U71">
+        <v>898.98099999999999</v>
+      </c>
+      <c r="V71">
+        <v>214.19</v>
+      </c>
+      <c r="W71">
+        <v>-96.146000000000001</v>
+      </c>
+      <c r="X71">
+        <v>-100.782</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-75.37</v>
+      </c>
+      <c r="AA71">
+        <v>129.374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>190.34100000000001</v>
+      </c>
+      <c r="D72">
+        <v>894.452</v>
+      </c>
+      <c r="E72">
+        <v>533.07600000000002</v>
+      </c>
+      <c r="F72">
+        <v>523.27</v>
+      </c>
+      <c r="G72">
+        <v>2323.5819999999999</v>
+      </c>
+      <c r="H72">
+        <v>4988.72</v>
+      </c>
+      <c r="I72">
+        <v>166.499</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>929.14700000000005</v>
+      </c>
+      <c r="O72">
+        <v>1229.8389999999999</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>47.606999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3758.8809999999999</v>
+      </c>
+      <c r="U72">
+        <v>946.65599999999995</v>
+      </c>
+      <c r="V72">
+        <v>223.87299999999999</v>
+      </c>
+      <c r="W72">
+        <v>-99.94</v>
+      </c>
+      <c r="X72">
+        <v>-88.061999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-6.8650000000000002</v>
+      </c>
+      <c r="AA72">
+        <v>190.34200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>184.215</v>
+      </c>
+      <c r="D73">
+        <v>810.01099999999997</v>
+      </c>
+      <c r="E73">
+        <v>467.78399999999999</v>
+      </c>
+      <c r="F73">
+        <v>480.74700000000001</v>
+      </c>
+      <c r="G73">
+        <v>2400.6190000000001</v>
+      </c>
+      <c r="H73">
+        <v>5095.9669999999996</v>
+      </c>
+      <c r="I73">
+        <v>197.06899999999999</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>854.02599999999995</v>
+      </c>
+      <c r="O73">
+        <v>1143.259</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>109.675</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3952.7080000000001</v>
+      </c>
+      <c r="U73">
+        <v>1056.3969999999999</v>
+      </c>
+      <c r="V73">
+        <v>263.71899999999999</v>
+      </c>
+      <c r="W73">
+        <v>-100.063</v>
+      </c>
+      <c r="X73">
+        <v>-99.69</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-2.8780000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>184.214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>190.15</v>
+      </c>
+      <c r="D74">
+        <v>932.10799999999995</v>
+      </c>
+      <c r="E74">
+        <v>569.83299999999997</v>
+      </c>
+      <c r="F74">
+        <v>549.16600000000005</v>
+      </c>
+      <c r="G74">
+        <v>2665.3679999999999</v>
+      </c>
+      <c r="H74">
+        <v>5382.8580000000002</v>
+      </c>
+      <c r="I74">
+        <v>204.98500000000001</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>921.31299999999999</v>
+      </c>
+      <c r="O74">
+        <v>1219.884</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>145.26300000000001</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>13000</v>
+      </c>
+      <c r="T74">
+        <v>4162.9740000000002</v>
+      </c>
+      <c r="U74">
+        <v>1201.732</v>
+      </c>
+      <c r="V74">
+        <v>217.738</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>2.3730000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-34.465000000000003</v>
+      </c>
+      <c r="AA74">
+        <v>190.15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>140.173</v>
+      </c>
+      <c r="D75">
+        <v>766.05</v>
+      </c>
+      <c r="E75">
+        <v>453.06900000000002</v>
+      </c>
+      <c r="F75">
+        <v>451.69799999999998</v>
+      </c>
+      <c r="G75">
+        <v>2512.1370000000002</v>
+      </c>
+      <c r="H75">
+        <v>5280.1450000000004</v>
+      </c>
+      <c r="I75">
+        <v>170.47399999999999</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>622.52599999999995</v>
+      </c>
+      <c r="O75">
+        <v>964.85900000000004</v>
+      </c>
+      <c r="P75">
+        <v>56.372</v>
+      </c>
+      <c r="Q75">
+        <v>-85.706000000000003</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4315.2860000000001</v>
+      </c>
+      <c r="U75">
+        <v>1115.951</v>
+      </c>
+      <c r="V75">
+        <v>164.58199999999999</v>
+      </c>
+      <c r="W75">
+        <v>-200.68700000000001</v>
+      </c>
+      <c r="X75">
+        <v>-213.381</v>
+      </c>
+      <c r="Y75">
+        <v>43.277000000000001</v>
+      </c>
+      <c r="Z75">
+        <v>-2.161</v>
+      </c>
+      <c r="AA75">
+        <v>140.173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>223.65600000000001</v>
+      </c>
+      <c r="D76">
+        <v>954.84</v>
+      </c>
+      <c r="E76">
+        <v>583.91300000000001</v>
+      </c>
+      <c r="F76">
+        <v>575.36500000000001</v>
+      </c>
+      <c r="G76">
+        <v>2460.578</v>
+      </c>
+      <c r="H76">
+        <v>5524.7830000000004</v>
+      </c>
+      <c r="I76">
+        <v>214.76300000000001</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1027.701</v>
+      </c>
+      <c r="O76">
+        <v>1373.817</v>
+      </c>
+      <c r="P76">
+        <v>60.735999999999997</v>
+      </c>
+      <c r="Q76">
+        <v>-295.84500000000003</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4150.9660000000003</v>
+      </c>
+      <c r="U76">
+        <v>820.18100000000004</v>
+      </c>
+      <c r="V76">
+        <v>110.636</v>
+      </c>
+      <c r="W76">
+        <v>-108.218</v>
+      </c>
+      <c r="X76">
+        <v>-95.495999999999995</v>
+      </c>
+      <c r="Y76">
+        <v>46.280999999999999</v>
+      </c>
+      <c r="Z76">
+        <v>-7.1470000000000002</v>
+      </c>
+      <c r="AA76">
+        <v>223.65600000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>227.86600000000001</v>
+      </c>
+      <c r="D77">
+        <v>934.38300000000004</v>
+      </c>
+      <c r="E77">
+        <v>558.29899999999998</v>
+      </c>
+      <c r="F77">
+        <v>567.45799999999997</v>
+      </c>
+      <c r="G77">
+        <v>2757.8429999999998</v>
+      </c>
+      <c r="H77">
+        <v>5755.1049999999996</v>
+      </c>
+      <c r="I77">
+        <v>235.548</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1042.9549999999999</v>
+      </c>
+      <c r="O77">
+        <v>1374.211</v>
+      </c>
+      <c r="P77">
+        <v>56.292999999999999</v>
+      </c>
+      <c r="Q77">
+        <v>157.184</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4380.8940000000002</v>
+      </c>
+      <c r="U77">
+        <v>976.40200000000004</v>
+      </c>
+      <c r="V77">
+        <v>188.952</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="Y77">
+        <v>42.854999999999997</v>
+      </c>
+      <c r="Z77">
+        <v>9.7710000000000008</v>
+      </c>
+      <c r="AA77">
+        <v>227.86600000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>360.791</v>
+      </c>
+      <c r="D78">
+        <v>1102.232</v>
+      </c>
+      <c r="E78">
+        <v>706.76300000000003</v>
+      </c>
+      <c r="F78">
+        <v>639.45500000000004</v>
+      </c>
+      <c r="G78">
+        <v>3057.85</v>
+      </c>
+      <c r="H78">
+        <v>6166.799</v>
+      </c>
+      <c r="I78">
+        <v>240.83099999999999</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1035.933</v>
+      </c>
+      <c r="O78">
+        <v>1373.3030000000001</v>
+      </c>
+      <c r="P78">
+        <v>64</v>
+      </c>
+      <c r="Q78">
+        <v>50.2</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>15000</v>
+      </c>
+      <c r="T78">
+        <v>4793.4960000000001</v>
+      </c>
+      <c r="U78">
+        <v>1027.567</v>
+      </c>
+      <c r="V78">
+        <v>234.37899999999999</v>
+      </c>
+      <c r="W78">
+        <v>-108.35899999999999</v>
+      </c>
+      <c r="X78">
+        <v>-107.133</v>
+      </c>
+      <c r="Y78">
+        <v>49.238</v>
+      </c>
+      <c r="Z78">
+        <v>-31.041</v>
+      </c>
+      <c r="AA78">
+        <v>360.791</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>161.18</v>
+      </c>
+      <c r="D79">
+        <v>856.10799999999995</v>
+      </c>
+      <c r="E79">
+        <v>500.24200000000002</v>
+      </c>
+      <c r="F79">
+        <v>506.94</v>
+      </c>
+      <c r="G79">
+        <v>2928.886</v>
+      </c>
+      <c r="H79">
+        <v>6053.9930000000004</v>
+      </c>
+      <c r="I79">
+        <v>200.28100000000001</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>781.87199999999996</v>
+      </c>
+      <c r="O79">
+        <v>1119.5930000000001</v>
+      </c>
+      <c r="P79">
+        <v>52.834000000000003</v>
+      </c>
+      <c r="Q79">
+        <v>21.248999999999999</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4934.3999999999996</v>
+      </c>
+      <c r="U79">
+        <v>1048.604</v>
+      </c>
+      <c r="V79">
+        <v>225.874</v>
+      </c>
+      <c r="W79">
+        <v>-108.571</v>
+      </c>
+      <c r="X79">
+        <v>-120.151</v>
+      </c>
+      <c r="Y79">
+        <v>52.834000000000003</v>
+      </c>
+      <c r="Z79">
+        <v>-32.406999999999996</v>
+      </c>
+      <c r="AA79">
+        <v>161.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>184.18</v>
+      </c>
+      <c r="D80">
+        <v>869.86699999999996</v>
+      </c>
+      <c r="E80">
+        <v>523.90099999999995</v>
+      </c>
+      <c r="F80">
+        <v>515.42999999999995</v>
+      </c>
+      <c r="G80">
+        <v>3258.4389999999999</v>
+      </c>
+      <c r="H80">
+        <v>6220.0420000000004</v>
+      </c>
+      <c r="I80">
+        <v>193.21600000000001</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1163.9269999999999</v>
+      </c>
+      <c r="O80">
+        <v>1479.181</v>
+      </c>
+      <c r="P80">
+        <v>60</v>
+      </c>
+      <c r="Q80">
+        <v>306.32</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4740.8609999999999</v>
+      </c>
+      <c r="U80">
+        <v>1354.924</v>
+      </c>
+      <c r="V80">
+        <v>199.23699999999999</v>
+      </c>
+      <c r="W80">
+        <v>-108.879</v>
+      </c>
+      <c r="X80">
+        <v>-93.98</v>
+      </c>
+      <c r="Y80">
+        <v>60</v>
+      </c>
+      <c r="Z80">
+        <v>252.96600000000001</v>
+      </c>
+      <c r="AA80">
+        <v>184.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>313.416</v>
+      </c>
+      <c r="D81">
+        <v>1109.194</v>
+      </c>
+      <c r="E81">
+        <v>658</v>
+      </c>
+      <c r="F81">
+        <v>667.98299999999995</v>
+      </c>
+      <c r="G81">
+        <v>3341.87</v>
+      </c>
+      <c r="H81">
+        <v>6550.6689999999999</v>
+      </c>
+      <c r="I81">
+        <v>235.46700000000001</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1122.9559999999999</v>
+      </c>
+      <c r="O81">
+        <v>1446.328</v>
+      </c>
+      <c r="P81">
+        <v>58.415999999999997</v>
+      </c>
+      <c r="Q81">
+        <v>-131.398</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5104.3410000000003</v>
+      </c>
+      <c r="U81">
+        <v>1223.5160000000001</v>
+      </c>
+      <c r="V81">
+        <v>274.33800000000002</v>
+      </c>
+      <c r="W81">
+        <v>-116.52500000000001</v>
+      </c>
+      <c r="X81">
+        <v>-117.71599999999999</v>
+      </c>
+      <c r="Y81">
+        <v>58.415999999999997</v>
+      </c>
+      <c r="Z81">
+        <v>-114.492</v>
+      </c>
+      <c r="AA81">
+        <v>313.41699999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>333.548</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1351.405</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>849.46900000000005</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>790.98400000000004</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3669.3510000000001</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7031.3729999999996</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>258.88499999999999</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1164.2170000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1515.2570000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>94.831999999999994</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>234.93899999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44191</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>16000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5516.116</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1458.442</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>435.81799999999998</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-116.65600000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-129.91300000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>75.957999999999998</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-32.454000000000001</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>333.548</v>
       </c>
     </row>
